--- a/FDI FE Analysis/FE Analysis Output.xlsx
+++ b/FDI FE Analysis/FE Analysis Output.xlsx
@@ -9,22 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6432" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="fdi_pst_principal" sheetId="1" r:id="rId1"/>
-    <sheet name="d75" sheetId="2" r:id="rId2"/>
-    <sheet name="anchor and nonanchor" sheetId="3" r:id="rId3"/>
-    <sheet name="rounds" sheetId="8" r:id="rId4"/>
-    <sheet name="coach_ta" sheetId="9" r:id="rId5"/>
-    <sheet name="coach_ratings" sheetId="10" r:id="rId6"/>
-    <sheet name="subject" sheetId="5" r:id="rId7"/>
-    <sheet name="vs 2016" sheetId="6" r:id="rId8"/>
-    <sheet name="fyi and pip" sheetId="7" r:id="rId9"/>
+    <sheet name="Domain distributions" sheetId="12" r:id="rId2"/>
+    <sheet name="alt effectiveness" sheetId="11" r:id="rId3"/>
+    <sheet name="d75" sheetId="2" r:id="rId4"/>
+    <sheet name="anchor and nonanchor" sheetId="3" r:id="rId5"/>
+    <sheet name="rounds" sheetId="8" r:id="rId6"/>
+    <sheet name="coach_ta" sheetId="9" r:id="rId7"/>
+    <sheet name="coach_ratings" sheetId="10" r:id="rId8"/>
+    <sheet name="subject" sheetId="5" r:id="rId9"/>
+    <sheet name="vs 2016" sheetId="6" r:id="rId10"/>
+    <sheet name="fyi and pip" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">coach_ta!$A$1:$B$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fdi_pst_principal!$A$11:$C$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">coach_ta!$A$1:$B$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fdi_pst_principal!$A$19:$C$34</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="260">
   <si>
     <t>effectiveness</t>
   </si>
@@ -509,9 +511,6 @@
     <t>Sept_2016_effectiveness</t>
   </si>
   <si>
-    <t>June 2016_effectiveness</t>
-  </si>
-  <si>
     <t>*slightly higher percentage of June 2016 Fellows in higher fdi effectiveness ratings</t>
   </si>
   <si>
@@ -603,13 +602,229 @@
   </si>
   <si>
     <t xml:space="preserve">*similar trends in june and sept in terms of fdi effectiveness and PST scores. </t>
+  </si>
+  <si>
+    <t>dom23_quartile</t>
+  </si>
+  <si>
+    <t>all_dom_quartile</t>
+  </si>
+  <si>
+    <t>*moderate, significant correlation between all_dom_avg/quartile and pst quartile, as well as principal effectiveness rating</t>
+  </si>
+  <si>
+    <t>trainingacademy</t>
+  </si>
+  <si>
+    <t>K071 Juan Morel Campos Secondary School</t>
+  </si>
+  <si>
+    <t>K227 J.H.S. 227 Edward B. Shallow</t>
+  </si>
+  <si>
+    <t>K422 Spring Creek Community School</t>
+  </si>
+  <si>
+    <t>M028 P.S. 028 Wright Brothers</t>
+  </si>
+  <si>
+    <t>X032 P.S. 032 Belmont</t>
+  </si>
+  <si>
+    <t>X089 P.S. 089 Bronx</t>
+  </si>
+  <si>
+    <t>X296 South Bronx Academy for Applied Media</t>
+  </si>
+  <si>
+    <t>X323 Bronx Writing Academy</t>
+  </si>
+  <si>
+    <t>X508 Bronxdale High School</t>
+  </si>
+  <si>
+    <t>X721 P.S. X721 - Stephen McSweeney School</t>
+  </si>
+  <si>
+    <t>K028 P.S. 028 The Warren Prep Academy</t>
+  </si>
+  <si>
+    <t>K053 P.S. K053</t>
+  </si>
+  <si>
+    <t>K220 J.H.S. 220 John J. Pershing</t>
+  </si>
+  <si>
+    <t>K373 P.S. 373 - Brooklyn Transition Center</t>
+  </si>
+  <si>
+    <t>K549 Bushwick School for Social Justice</t>
+  </si>
+  <si>
+    <t>K554 All City Leadership Secondary School</t>
+  </si>
+  <si>
+    <t>K562 Evergreen Middle School</t>
+  </si>
+  <si>
+    <t>K671 Mott Hall Bridges</t>
+  </si>
+  <si>
+    <t>M038 P.S. 38 Roberto Clemente</t>
+  </si>
+  <si>
+    <t>M057 James Weldon Johnson</t>
+  </si>
+  <si>
+    <t>M079 Dr. Horan School M079</t>
+  </si>
+  <si>
+    <t>M314 Muscota</t>
+  </si>
+  <si>
+    <t>M319 M.S. 319 Maria Teresa</t>
+  </si>
+  <si>
+    <t>M369 Urban Assembly School for the Performing Arts</t>
+  </si>
+  <si>
+    <t>M555 Central Park East HS</t>
+  </si>
+  <si>
+    <t>Q226 J.H.S. 226 Virgil I. Grissom</t>
+  </si>
+  <si>
+    <t>Q296 Pan American International High School</t>
+  </si>
+  <si>
+    <t>X092 P.S. 092 Bronx</t>
+  </si>
+  <si>
+    <t>X101 M.S. X101 Edward R. Byrne</t>
+  </si>
+  <si>
+    <t>X161 P.S. 161 Juan Ponce De Leon School</t>
+  </si>
+  <si>
+    <t>X168 P.S. 168</t>
+  </si>
+  <si>
+    <t>X176 P.S. X176</t>
+  </si>
+  <si>
+    <t>X228 MS 228 Jonas Bronck Academy</t>
+  </si>
+  <si>
+    <t>X274 THE NEW AMERICAN ACADEMY AT ROBERTO CLEMENTE STATE PARK</t>
+  </si>
+  <si>
+    <t>X303 I.S. X303 Leadership &amp; Community Service</t>
+  </si>
+  <si>
+    <t>X331 The Bronx School of Young Leaders</t>
+  </si>
+  <si>
+    <t>X352 The Vida Bogart School for All Children</t>
+  </si>
+  <si>
+    <t>X556 Bronx Park Middle School</t>
+  </si>
+  <si>
+    <t>M052 J.H.S. 052 Inwood</t>
+  </si>
+  <si>
+    <t>Q137 MS 137 Q</t>
+  </si>
+  <si>
+    <t>Q319 Village Academy</t>
+  </si>
+  <si>
+    <t>X012 P.S. X012 Lewis and Clark School</t>
+  </si>
+  <si>
+    <t>principal_effectiveness rating (0 is lowest, 4 is highest)</t>
+  </si>
+  <si>
+    <t>FDI</t>
+  </si>
+  <si>
+    <t>Domain 2 avg</t>
+  </si>
+  <si>
+    <t>Domain 3 avg</t>
+  </si>
+  <si>
+    <t>Domain 1 avg</t>
+  </si>
+  <si>
+    <t>Domain 4 avg</t>
+  </si>
+  <si>
+    <t>FD domains</t>
+  </si>
+  <si>
+    <t>June 2016 March Data</t>
+  </si>
+  <si>
+    <t>6/1/2016 Oct Data</t>
+  </si>
+  <si>
+    <t>9/1/2016 March Data</t>
+  </si>
+  <si>
+    <t>mar_dom2</t>
+  </si>
+  <si>
+    <t>mar_dom1</t>
+  </si>
+  <si>
+    <t>mar_dom3</t>
+  </si>
+  <si>
+    <t>mar_dom4a</t>
+  </si>
+  <si>
+    <t>69% with a 3 or above</t>
+  </si>
+  <si>
+    <t>56% with a 3 or above</t>
+  </si>
+  <si>
+    <t>53% with a 3 or above</t>
+  </si>
+  <si>
+    <t>68% with a 3 or above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*September 2016 Fellows performed best on domains 2 and 4 in March FDI  </t>
+  </si>
+  <si>
+    <t>*There is a very weak, but significant, correlation between FDI rating (domain 2 and 3 average) and PST quartile for June 2016 Fellows</t>
+  </si>
+  <si>
+    <t>June 2016 Oct FDI Rating</t>
+  </si>
+  <si>
+    <t>September 2016 Mar FDI Rating</t>
+  </si>
+  <si>
+    <t>June 2016 Mar FDI Ratings</t>
+  </si>
+  <si>
+    <t>*43% of Fellows rated 3 or higher</t>
+  </si>
+  <si>
+    <t>*81% of Fellows rated 3 or higher</t>
+  </si>
+  <si>
+    <t>*54% of Fellows rated 3 or higher</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,8 +890,92 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF555555"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FFB0B0B0"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="3"/>
+      <color theme="1"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF555555"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF555555"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,6 +997,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFDFDFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -887,8 +1204,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -943,6 +1258,130 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -964,16 +1403,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>179070</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>169468</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>270510</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>55168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>337321</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>119042</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428761</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111422</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -996,7 +1435,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3379470" y="535228"/>
+          <a:off x="6545580" y="55168"/>
           <a:ext cx="5278891" cy="2902324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1010,6 +1449,55 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>605199</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>179188</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>84828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD69071-66DD-41C4-A7C1-743B4A60A3AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3805599" y="2129790"/>
+          <a:ext cx="7254949" cy="3639558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1146,7 +1634,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1192,10 +1680,54 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>201930</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>150536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1891</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>97663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3BD5936-344E-40BC-A01F-93FF213104B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5322570" y="5393096"/>
+          <a:ext cx="5560681" cy="4042877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1244,7 +1776,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1290,10 +1822,54 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>694793</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342935</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCFB15B-9831-4F8A-96FE-44652ABA3A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6729833" y="4088130"/>
+          <a:ext cx="5603172" cy="2721337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1639,240 +2215,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.26171875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5234375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83984375" style="1"/>
+    <col min="2" max="2" width="17.26171875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.89453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83984375" style="1"/>
+    <col min="6" max="6" width="19.3125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:9" ht="14.7" x14ac:dyDescent="0.65">
+      <c r="A1" s="121" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="121" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="121" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="122" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.7" x14ac:dyDescent="0.65">
+      <c r="A2" s="117" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="118">
+        <v>2.91</v>
+      </c>
+      <c r="C2" s="118">
+        <v>2.747738</v>
+      </c>
+      <c r="D2" s="118">
+        <v>3.6971050000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.7" x14ac:dyDescent="0.65">
+      <c r="A3" s="119" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="118">
+        <v>3.1</v>
+      </c>
+      <c r="C3" s="118">
+        <v>3.0067870000000001</v>
+      </c>
+      <c r="D3" s="118">
+        <v>3.8333330000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.7" x14ac:dyDescent="0.65">
+      <c r="A4" s="119" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="118">
+        <v>2.83</v>
+      </c>
+      <c r="C4" s="118">
+        <v>2.6157620000000001</v>
+      </c>
+      <c r="D4" s="118">
+        <v>3.5293939999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.7" x14ac:dyDescent="0.65">
+      <c r="A5" s="119" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="118">
+        <v>3.26</v>
+      </c>
+      <c r="C5" s="120">
+        <v>3.05</v>
+      </c>
+      <c r="D5" s="118">
+        <v>3.9183859999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.7" x14ac:dyDescent="0.65">
+      <c r="A6" s="119" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="118">
+        <v>2.96</v>
+      </c>
+      <c r="C6" s="118">
+        <v>2.8112750000000002</v>
+      </c>
+      <c r="D6" s="118">
+        <v>3.6813639999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="38">
+      <c r="B9" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="38">
         <v>2.6557499999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="38">
+      <c r="F10" s="88">
+        <v>0</v>
+      </c>
+      <c r="G10" s="94">
+        <v>3.3898310000000001E-2</v>
+      </c>
+      <c r="H10" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A11" s="13">
+        <v>2</v>
+      </c>
+      <c r="B11" s="38">
         <v>2.66048780487804</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="38">
+      <c r="F11" s="90">
+        <v>1</v>
+      </c>
+      <c r="G11" s="95">
+        <v>5.0847459999999997E-2</v>
+      </c>
+      <c r="H11" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A12" s="13">
+        <v>3</v>
+      </c>
+      <c r="B12" s="38">
         <v>2.6912500000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="38">
+      <c r="F12" s="88">
+        <v>2</v>
+      </c>
+      <c r="G12" s="94">
+        <v>0.44067796999999997</v>
+      </c>
+      <c r="H12" s="88">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A13" s="13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="38">
         <v>2.7204999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A6" s="1" t="s">
+      <c r="F13" s="90">
+        <v>3</v>
+      </c>
+      <c r="G13" s="95">
+        <v>0.42372881000000001</v>
+      </c>
+      <c r="H13" s="90">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="88">
+        <v>4</v>
+      </c>
+      <c r="G14" s="94">
+        <v>5.0847459999999997E-2</v>
+      </c>
+      <c r="H14" s="88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A7" s="1" t="s">
+      <c r="G15" s="96"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="39" t="s">
+    <row r="19" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A19" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B19" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A12" s="14">
-        <v>0</v>
-      </c>
-      <c r="B12" s="14">
-        <v>1</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A13" s="15">
-        <v>2</v>
-      </c>
-      <c r="B13" s="15">
-        <v>1</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0.15384614999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A14" s="15">
-        <v>3</v>
-      </c>
-      <c r="B14" s="15">
-        <v>1</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A15" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="14">
-        <v>1</v>
-      </c>
-      <c r="C15" s="19">
-        <v>7.0175440000000006E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A16" s="15">
-        <v>0</v>
-      </c>
-      <c r="B16" s="15">
-        <v>2</v>
-      </c>
-      <c r="C16" s="20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A17" s="14">
-        <v>1</v>
-      </c>
-      <c r="B17" s="14">
-        <v>2</v>
-      </c>
-      <c r="C17" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A18" s="14">
-        <v>2</v>
-      </c>
-      <c r="B18" s="14">
-        <v>2</v>
-      </c>
-      <c r="C18" s="19">
-        <v>0.57692308000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A19" s="14">
-        <v>3</v>
-      </c>
-      <c r="B19" s="14">
-        <v>2</v>
-      </c>
-      <c r="C19" s="19">
-        <v>0.72</v>
+      <c r="C19" s="39" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B20" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="19">
-        <v>0.66666667000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A21" s="25" t="s">
-        <v>32</v>
+      <c r="A21" s="15">
+        <v>2</v>
       </c>
       <c r="B21" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="20">
-        <v>0.75438596000000002</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>179</v>
+        <v>0.15384614999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" s="20">
-        <v>0.19230769</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A23" s="15">
-        <v>3</v>
-      </c>
-      <c r="B23" s="15">
-        <v>3</v>
-      </c>
-      <c r="C23" s="20">
-        <v>0.16</v>
+      <c r="A23" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="19">
+        <v>7.0175440000000006E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B24" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="20">
-        <v>0.33333332999999998</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A25" s="24" t="s">
-        <v>32</v>
+      <c r="A25" s="14">
+        <v>1</v>
       </c>
       <c r="B25" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="19">
-        <v>0.1754386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.5">
@@ -1880,191 +2509,194 @@
         <v>2</v>
       </c>
       <c r="B26" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26" s="19">
+        <v>0.57692308000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A27" s="14">
+        <v>3</v>
+      </c>
+      <c r="B27" s="14">
+        <v>2</v>
+      </c>
+      <c r="C27" s="19">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A28" s="14">
+        <v>4</v>
+      </c>
+      <c r="B28" s="14">
+        <v>2</v>
+      </c>
+      <c r="C28" s="19">
+        <v>0.66666667000000002</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A29" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="15">
+        <v>2</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0.75438596000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A30" s="15">
+        <v>2</v>
+      </c>
+      <c r="B30" s="15">
+        <v>3</v>
+      </c>
+      <c r="C30" s="20">
+        <v>0.19230769</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A31" s="15">
+        <v>3</v>
+      </c>
+      <c r="B31" s="15">
+        <v>3</v>
+      </c>
+      <c r="C31" s="20">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A32" s="15">
+        <v>4</v>
+      </c>
+      <c r="B32" s="15">
+        <v>3</v>
+      </c>
+      <c r="C32" s="20">
+        <v>0.33333332999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A33" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="14">
+        <v>3</v>
+      </c>
+      <c r="C33" s="19">
+        <v>0.1754386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A34" s="14">
+        <v>2</v>
+      </c>
+      <c r="B34" s="14">
+        <v>4</v>
+      </c>
+      <c r="C34" s="19">
         <v>7.6923080000000005E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A28" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A36" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="39" t="s">
+    <row r="39" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A39" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B39" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A32" s="14">
-        <v>0</v>
-      </c>
-      <c r="B32" s="14">
-        <v>1</v>
-      </c>
-      <c r="C32" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A33" s="15">
-        <v>1</v>
-      </c>
-      <c r="B33" s="15">
-        <v>1</v>
-      </c>
-      <c r="C33" s="20">
-        <v>0.3333333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A34" s="15">
-        <v>2</v>
-      </c>
-      <c r="B34" s="15">
-        <v>1</v>
-      </c>
-      <c r="C34" s="20">
-        <v>0.1153846</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A35" s="15">
-        <v>3</v>
-      </c>
-      <c r="B35" s="15">
-        <v>1</v>
-      </c>
-      <c r="C35" s="20">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A36" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="14">
-        <v>1</v>
-      </c>
-      <c r="C36" s="19">
-        <v>0.2807018</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A37" s="14">
-        <v>2</v>
-      </c>
-      <c r="B37" s="14">
-        <v>2</v>
-      </c>
-      <c r="C37" s="19">
-        <v>0.3846154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A38" s="14">
-        <v>3</v>
-      </c>
-      <c r="B38" s="14">
-        <v>2</v>
-      </c>
-      <c r="C38" s="19">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A39" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="15">
-        <v>2</v>
-      </c>
-      <c r="C39" s="20">
-        <v>0.245614</v>
+      <c r="C39" s="39" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" s="19">
-        <v>0.66666669999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41" s="20">
-        <v>0.23076920000000001</v>
+        <v>0.3333333</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" s="20">
-        <v>0.2</v>
+        <v>0.1153846</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="15">
+        <v>3</v>
+      </c>
+      <c r="B43" s="15">
+        <v>1</v>
+      </c>
+      <c r="C43" s="20">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="14">
-        <v>3</v>
-      </c>
-      <c r="C43" s="19">
-        <v>0.3684211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A44" s="14">
-        <v>2</v>
-      </c>
       <c r="B44" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C44" s="19">
-        <v>0.26923079999999999</v>
+        <v>0.2807018</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45" s="19">
-        <v>0.32</v>
+        <v>0.3846154</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A46" s="15">
-        <v>4</v>
-      </c>
-      <c r="B46" s="15">
-        <v>4</v>
-      </c>
-      <c r="C46" s="20">
-        <v>1</v>
+      <c r="A46" s="14">
+        <v>3</v>
+      </c>
+      <c r="B46" s="14">
+        <v>2</v>
+      </c>
+      <c r="C46" s="19">
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.5">
@@ -2072,19 +2704,107 @@
         <v>32</v>
       </c>
       <c r="B47" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" s="20">
+        <v>0.245614</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A48" s="14">
+        <v>1</v>
+      </c>
+      <c r="B48" s="14">
+        <v>3</v>
+      </c>
+      <c r="C48" s="19">
+        <v>0.66666669999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A49" s="15">
+        <v>2</v>
+      </c>
+      <c r="B49" s="15">
+        <v>3</v>
+      </c>
+      <c r="C49" s="20">
+        <v>0.23076920000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A50" s="15">
+        <v>3</v>
+      </c>
+      <c r="B50" s="15">
+        <v>3</v>
+      </c>
+      <c r="C50" s="20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A51" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="14">
+        <v>3</v>
+      </c>
+      <c r="C51" s="19">
+        <v>0.3684211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A52" s="14">
+        <v>2</v>
+      </c>
+      <c r="B52" s="14">
+        <v>4</v>
+      </c>
+      <c r="C52" s="19">
+        <v>0.26923079999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A53" s="14">
+        <v>3</v>
+      </c>
+      <c r="B53" s="14">
+        <v>4</v>
+      </c>
+      <c r="C53" s="19">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A54" s="15">
+        <v>4</v>
+      </c>
+      <c r="B54" s="15">
+        <v>4</v>
+      </c>
+      <c r="C54" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A55" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="15">
+        <v>4</v>
+      </c>
+      <c r="C55" s="20">
         <v>0.1052632</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A49" s="1" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A57" s="1" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A11:C26">
+  <autoFilter ref="A19:C34">
     <sortState ref="A12:C26">
       <sortCondition ref="B11:B26"/>
     </sortState>
@@ -2095,7 +2815,3139 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="20.3125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.7890625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="8.83984375" style="9"/>
+    <col min="5" max="5" width="12.89453125" style="9" customWidth="1"/>
+    <col min="6" max="7" width="8.83984375" style="9"/>
+    <col min="8" max="8" width="11.5234375" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.83984375" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41">
+        <v>0.25332290000000002</v>
+      </c>
+      <c r="C2" s="40">
+        <v>324</v>
+      </c>
+      <c r="E2" s="40">
+        <v>1</v>
+      </c>
+      <c r="F2" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="G2" s="40">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A3" s="42">
+        <v>2</v>
+      </c>
+      <c r="B3" s="43">
+        <v>0.25566850000000002</v>
+      </c>
+      <c r="C3" s="42">
+        <v>327</v>
+      </c>
+      <c r="E3" s="42">
+        <v>2</v>
+      </c>
+      <c r="F3" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4" s="40">
+        <v>3</v>
+      </c>
+      <c r="B4" s="41">
+        <v>0.24550430000000001</v>
+      </c>
+      <c r="C4" s="40">
+        <v>314</v>
+      </c>
+      <c r="E4" s="40">
+        <v>3</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0.29310340000000001</v>
+      </c>
+      <c r="G4" s="40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A5" s="42">
+        <v>4</v>
+      </c>
+      <c r="B5" s="43">
+        <v>0.24550430000000001</v>
+      </c>
+      <c r="C5" s="42">
+        <v>314</v>
+      </c>
+      <c r="E5" s="42">
+        <v>4</v>
+      </c>
+      <c r="F5" s="43">
+        <v>0.20689660000000001</v>
+      </c>
+      <c r="G5" s="42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A6" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A8" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A9" s="44">
+        <v>2.529442</v>
+      </c>
+      <c r="B9" s="45">
+        <v>2.6663359999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A11" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" s="40">
+        <v>1</v>
+      </c>
+      <c r="B12" s="46">
+        <v>2.6557499999999998</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="E12" s="40">
+        <v>1</v>
+      </c>
+      <c r="F12" s="46">
+        <v>2.5212500000000002</v>
+      </c>
+      <c r="H12" s="73"/>
+      <c r="I12" s="69"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" s="42">
+        <v>2</v>
+      </c>
+      <c r="B13" s="48">
+        <v>2.660488</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="E13" s="42">
+        <v>2</v>
+      </c>
+      <c r="F13" s="48">
+        <v>2.5620609999999999</v>
+      </c>
+      <c r="H13" s="74"/>
+      <c r="I13" s="71"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A14" s="40">
+        <v>3</v>
+      </c>
+      <c r="B14" s="46">
+        <v>2.6912500000000001</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="E14" s="40">
+        <v>3</v>
+      </c>
+      <c r="F14" s="46">
+        <v>2.5812369999999998</v>
+      </c>
+      <c r="H14" s="73"/>
+      <c r="I14" s="69"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" s="42">
+        <v>4</v>
+      </c>
+      <c r="B15" s="48">
+        <v>2.7204999999999999</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="E15" s="42">
+        <v>4</v>
+      </c>
+      <c r="F15" s="48">
+        <v>2.5922499999999999</v>
+      </c>
+      <c r="H15" s="74"/>
+      <c r="I15" s="71"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" s="51"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A17" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A19" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="97"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A20" s="52">
+        <v>1</v>
+      </c>
+      <c r="B20" s="106">
+        <v>34</v>
+      </c>
+      <c r="C20" s="107">
+        <v>0.30357139999999999</v>
+      </c>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="K20" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A21" s="52">
+        <v>2</v>
+      </c>
+      <c r="B21" s="108">
+        <v>34</v>
+      </c>
+      <c r="C21" s="109">
+        <v>0.30357139999999999</v>
+      </c>
+      <c r="E21" s="98"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A22" s="32">
+        <v>3</v>
+      </c>
+      <c r="B22" s="106">
+        <v>23</v>
+      </c>
+      <c r="C22" s="107">
+        <v>0.20535709999999999</v>
+      </c>
+      <c r="E22" s="98"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A23" s="32">
+        <v>4</v>
+      </c>
+      <c r="B23" s="108">
+        <v>21</v>
+      </c>
+      <c r="C23" s="109">
+        <v>0.1875</v>
+      </c>
+      <c r="E23" s="98"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="E24" s="98"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A25" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" ht="33.299999999999997" x14ac:dyDescent="0.5">
+      <c r="A27" s="110" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="76"/>
+      <c r="E27" s="110" t="s">
+        <v>255</v>
+      </c>
+      <c r="F27" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="76"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A28" s="111">
+        <v>1</v>
+      </c>
+      <c r="B28" s="113">
+        <v>5.4288820000000003E-3</v>
+      </c>
+      <c r="C28" s="111">
+        <v>5</v>
+      </c>
+      <c r="D28" s="77"/>
+      <c r="E28" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="113">
+        <v>8.9285709999999997E-3</v>
+      </c>
+      <c r="G28" s="111">
+        <v>1</v>
+      </c>
+      <c r="H28" s="77"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A29" s="112">
+        <v>1.1666669999999999</v>
+      </c>
+      <c r="B29" s="114">
+        <v>5.4288820000000003E-3</v>
+      </c>
+      <c r="C29" s="112">
+        <v>5</v>
+      </c>
+      <c r="D29" s="78"/>
+      <c r="E29" s="112">
+        <v>1.8333330000000001</v>
+      </c>
+      <c r="F29" s="114">
+        <v>2.6785713999999999E-2</v>
+      </c>
+      <c r="G29" s="112">
+        <v>3</v>
+      </c>
+      <c r="H29" s="78"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A30" s="111">
+        <v>1.3333330000000001</v>
+      </c>
+      <c r="B30" s="113">
+        <v>6.5146580000000004E-3</v>
+      </c>
+      <c r="C30" s="111">
+        <v>6</v>
+      </c>
+      <c r="D30" s="77"/>
+      <c r="E30" s="115">
+        <v>2</v>
+      </c>
+      <c r="F30" s="116">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="G30" s="115">
+        <v>16</v>
+      </c>
+      <c r="H30" s="77"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A31" s="112">
+        <v>1.3333330000000001</v>
+      </c>
+      <c r="B31" s="114">
+        <v>3.2573290000000002E-3</v>
+      </c>
+      <c r="C31" s="112">
+        <v>3</v>
+      </c>
+      <c r="D31" s="78"/>
+      <c r="E31" s="112">
+        <v>2.1666669999999999</v>
+      </c>
+      <c r="F31" s="114">
+        <v>8.9285709999999997E-3</v>
+      </c>
+      <c r="G31" s="112">
+        <v>1</v>
+      </c>
+      <c r="H31" s="78"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A32" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="B32" s="113">
+        <v>1.6286644999999999E-2</v>
+      </c>
+      <c r="C32" s="111">
+        <v>15</v>
+      </c>
+      <c r="D32" s="77"/>
+      <c r="E32" s="111">
+        <v>2.1666669999999999</v>
+      </c>
+      <c r="F32" s="113">
+        <v>8.9285709999999997E-3</v>
+      </c>
+      <c r="G32" s="111">
+        <v>1</v>
+      </c>
+      <c r="H32" s="77"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A33" s="112">
+        <v>1.6666669999999999</v>
+      </c>
+      <c r="B33" s="114">
+        <v>1.8458197999999999E-2</v>
+      </c>
+      <c r="C33" s="112">
+        <v>17</v>
+      </c>
+      <c r="D33" s="78"/>
+      <c r="E33" s="112">
+        <v>2.3333330000000001</v>
+      </c>
+      <c r="F33" s="114">
+        <v>4.4642857000000001E-2</v>
+      </c>
+      <c r="G33" s="112">
+        <v>5</v>
+      </c>
+      <c r="H33" s="78"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A34" s="111">
+        <v>1.6666669999999999</v>
+      </c>
+      <c r="B34" s="113">
+        <v>5.4288820000000003E-3</v>
+      </c>
+      <c r="C34" s="111">
+        <v>5</v>
+      </c>
+      <c r="D34" s="77"/>
+      <c r="E34" s="111">
+        <v>2.5</v>
+      </c>
+      <c r="F34" s="113">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G34" s="111">
+        <v>7</v>
+      </c>
+      <c r="H34" s="77"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A35" s="112">
+        <v>1.8333330000000001</v>
+      </c>
+      <c r="B35" s="114">
+        <v>1.6286644999999999E-2</v>
+      </c>
+      <c r="C35" s="112">
+        <v>15</v>
+      </c>
+      <c r="D35" s="78"/>
+      <c r="E35" s="112">
+        <v>2.6666669999999999</v>
+      </c>
+      <c r="F35" s="114">
+        <v>3.5714285999999998E-2</v>
+      </c>
+      <c r="G35" s="112">
+        <v>4</v>
+      </c>
+      <c r="H35" s="78"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A36" s="115">
+        <v>2</v>
+      </c>
+      <c r="B36" s="116">
+        <v>0.15960912099999999</v>
+      </c>
+      <c r="C36" s="115">
+        <v>147</v>
+      </c>
+      <c r="D36" s="77"/>
+      <c r="E36" s="111">
+        <v>2.6666669999999999</v>
+      </c>
+      <c r="F36" s="113">
+        <v>8.0357143000000006E-2</v>
+      </c>
+      <c r="G36" s="111">
+        <v>9</v>
+      </c>
+      <c r="H36" s="77"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A37" s="112">
+        <v>2.1666669999999999</v>
+      </c>
+      <c r="B37" s="114">
+        <v>5.4288820000000003E-3</v>
+      </c>
+      <c r="C37" s="112">
+        <v>5</v>
+      </c>
+      <c r="D37" s="78"/>
+      <c r="E37" s="112">
+        <v>2.8333330000000001</v>
+      </c>
+      <c r="F37" s="114">
+        <v>2.6785713999999999E-2</v>
+      </c>
+      <c r="G37" s="112">
+        <v>3</v>
+      </c>
+      <c r="H37" s="78"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A38" s="111">
+        <v>2.1666669999999999</v>
+      </c>
+      <c r="B38" s="113">
+        <v>5.5374593E-2</v>
+      </c>
+      <c r="C38" s="111">
+        <v>51</v>
+      </c>
+      <c r="D38" s="77"/>
+      <c r="E38" s="111">
+        <v>2.8333330000000001</v>
+      </c>
+      <c r="F38" s="113">
+        <v>8.9285709999999997E-3</v>
+      </c>
+      <c r="G38" s="111">
+        <v>1</v>
+      </c>
+      <c r="H38" s="77"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A39" s="112">
+        <v>2.25</v>
+      </c>
+      <c r="B39" s="114">
+        <v>3.2573290000000002E-3</v>
+      </c>
+      <c r="C39" s="112">
+        <v>3</v>
+      </c>
+      <c r="D39" s="78"/>
+      <c r="E39" s="115">
+        <v>3</v>
+      </c>
+      <c r="F39" s="116">
+        <v>0.15178571399999999</v>
+      </c>
+      <c r="G39" s="115">
+        <v>17</v>
+      </c>
+      <c r="H39" s="78"/>
+      <c r="I39" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A40" s="111">
+        <v>2.3333330000000001</v>
+      </c>
+      <c r="B40" s="113">
+        <v>5.1031488E-2</v>
+      </c>
+      <c r="C40" s="111">
+        <v>47</v>
+      </c>
+      <c r="D40" s="77"/>
+      <c r="E40" s="111">
+        <v>3.1666669999999999</v>
+      </c>
+      <c r="F40" s="113">
+        <v>8.9285709999999997E-3</v>
+      </c>
+      <c r="G40" s="111">
+        <v>1</v>
+      </c>
+      <c r="H40" s="77"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A41" s="112">
+        <v>2.3333330000000001</v>
+      </c>
+      <c r="B41" s="114">
+        <v>1.7372420999999999E-2</v>
+      </c>
+      <c r="C41" s="112">
+        <v>16</v>
+      </c>
+      <c r="D41" s="78"/>
+      <c r="E41" s="112">
+        <v>3.1666669999999999</v>
+      </c>
+      <c r="F41" s="114">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G41" s="112">
+        <v>7</v>
+      </c>
+      <c r="H41" s="78"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A42" s="111">
+        <v>2.4166669999999999</v>
+      </c>
+      <c r="B42" s="113">
+        <v>1.0857760000000001E-3</v>
+      </c>
+      <c r="C42" s="111">
+        <v>1</v>
+      </c>
+      <c r="D42" s="77"/>
+      <c r="E42" s="111">
+        <v>3.3333330000000001</v>
+      </c>
+      <c r="F42" s="113">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G42" s="111">
+        <v>7</v>
+      </c>
+      <c r="H42" s="77"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A43" s="112">
+        <v>2.5</v>
+      </c>
+      <c r="B43" s="114">
+        <v>8.2519000999999995E-2</v>
+      </c>
+      <c r="C43" s="112">
+        <v>76</v>
+      </c>
+      <c r="D43" s="78"/>
+      <c r="E43" s="112">
+        <v>3.5</v>
+      </c>
+      <c r="F43" s="114">
+        <v>7.1428570999999996E-2</v>
+      </c>
+      <c r="G43" s="112">
+        <v>8</v>
+      </c>
+      <c r="H43" s="78"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A44" s="111">
+        <v>2.6666669999999999</v>
+      </c>
+      <c r="B44" s="113">
+        <v>7.6004339999999997E-3</v>
+      </c>
+      <c r="C44" s="111">
+        <v>7</v>
+      </c>
+      <c r="D44" s="77"/>
+      <c r="E44" s="111">
+        <v>3.6666669999999999</v>
+      </c>
+      <c r="F44" s="113">
+        <v>8.9285709999999997E-3</v>
+      </c>
+      <c r="G44" s="111">
+        <v>1</v>
+      </c>
+      <c r="H44" s="77"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A45" s="112">
+        <v>2.6666669999999999</v>
+      </c>
+      <c r="B45" s="114">
+        <v>4.451683E-2</v>
+      </c>
+      <c r="C45" s="112">
+        <v>41</v>
+      </c>
+      <c r="D45" s="78"/>
+      <c r="E45" s="112">
+        <v>3.6666669999999999</v>
+      </c>
+      <c r="F45" s="114">
+        <v>3.5714285999999998E-2</v>
+      </c>
+      <c r="G45" s="112">
+        <v>4</v>
+      </c>
+      <c r="H45" s="78"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A46" s="111">
+        <v>2.8333330000000001</v>
+      </c>
+      <c r="B46" s="113">
+        <v>5.1031488E-2</v>
+      </c>
+      <c r="C46" s="111">
+        <v>47</v>
+      </c>
+      <c r="D46" s="77"/>
+      <c r="E46" s="111">
+        <v>3.8333330000000001</v>
+      </c>
+      <c r="F46" s="113">
+        <v>2.6785713999999999E-2</v>
+      </c>
+      <c r="G46" s="111">
+        <v>3</v>
+      </c>
+      <c r="H46" s="77"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A47" s="112">
+        <v>2.8333330000000001</v>
+      </c>
+      <c r="B47" s="114">
+        <v>1.0857762999999999E-2</v>
+      </c>
+      <c r="C47" s="112">
+        <v>10</v>
+      </c>
+      <c r="D47" s="78"/>
+      <c r="E47" s="112">
+        <v>4</v>
+      </c>
+      <c r="F47" s="114">
+        <v>4.4642857000000001E-2</v>
+      </c>
+      <c r="G47" s="112">
+        <v>5</v>
+      </c>
+      <c r="H47" s="78"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A48" s="111">
+        <v>2.9166669999999999</v>
+      </c>
+      <c r="B48" s="113">
+        <v>2.1715530000000001E-3</v>
+      </c>
+      <c r="C48" s="111">
+        <v>2</v>
+      </c>
+      <c r="D48" s="77"/>
+      <c r="E48" s="111">
+        <v>4.1666670000000003</v>
+      </c>
+      <c r="F48" s="113">
+        <v>2.6785713999999999E-2</v>
+      </c>
+      <c r="G48" s="111">
+        <v>3</v>
+      </c>
+      <c r="H48" s="77"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A49" s="115">
+        <v>3</v>
+      </c>
+      <c r="B49" s="116">
+        <v>9.0119434999999998E-2</v>
+      </c>
+      <c r="C49" s="115">
+        <v>83</v>
+      </c>
+      <c r="D49" s="78"/>
+      <c r="E49" s="112">
+        <v>4.1666670000000003</v>
+      </c>
+      <c r="F49" s="114">
+        <v>8.9285709999999997E-3</v>
+      </c>
+      <c r="G49" s="112">
+        <v>1</v>
+      </c>
+      <c r="H49" s="78"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A50" s="111">
+        <v>3.1666669999999999</v>
+      </c>
+      <c r="B50" s="113">
+        <v>9.7719869999999993E-3</v>
+      </c>
+      <c r="C50" s="111">
+        <v>9</v>
+      </c>
+      <c r="D50" s="77"/>
+      <c r="E50" s="111">
+        <v>4.3333329999999997</v>
+      </c>
+      <c r="F50" s="113">
+        <v>8.9285709999999997E-3</v>
+      </c>
+      <c r="G50" s="111">
+        <v>1</v>
+      </c>
+      <c r="H50" s="77"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A51" s="112">
+        <v>3.1666669999999999</v>
+      </c>
+      <c r="B51" s="114">
+        <v>3.0401737000000002E-2</v>
+      </c>
+      <c r="C51" s="112">
+        <v>28</v>
+      </c>
+      <c r="D51" s="78"/>
+      <c r="E51" s="112">
+        <v>4.6666670000000003</v>
+      </c>
+      <c r="F51" s="114">
+        <v>8.9285709999999997E-3</v>
+      </c>
+      <c r="G51" s="112">
+        <v>1</v>
+      </c>
+      <c r="H51" s="78"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A52" s="111">
+        <v>3.3333330000000001</v>
+      </c>
+      <c r="B52" s="113">
+        <v>4.7774158999999997E-2</v>
+      </c>
+      <c r="C52" s="111">
+        <v>44</v>
+      </c>
+      <c r="D52" s="77"/>
+      <c r="E52" s="111">
+        <v>5</v>
+      </c>
+      <c r="F52" s="113">
+        <v>1.7857142999999999E-2</v>
+      </c>
+      <c r="G52" s="111">
+        <v>2</v>
+      </c>
+      <c r="H52" s="77"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A53" s="112">
+        <v>3.3333330000000001</v>
+      </c>
+      <c r="B53" s="114">
+        <v>8.6862109999999992E-3</v>
+      </c>
+      <c r="C53" s="112">
+        <v>8</v>
+      </c>
+      <c r="D53" s="78"/>
+      <c r="E53" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A54" s="111">
+        <v>3.4166669999999999</v>
+      </c>
+      <c r="B54" s="113">
+        <v>1.0857760000000001E-3</v>
+      </c>
+      <c r="C54" s="111">
+        <v>1</v>
+      </c>
+      <c r="D54" s="77"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A55" s="112">
+        <v>3.5</v>
+      </c>
+      <c r="B55" s="114">
+        <v>5.2117264000000003E-2</v>
+      </c>
+      <c r="C55" s="112">
+        <v>48</v>
+      </c>
+      <c r="D55" s="78"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A56" s="111">
+        <v>3.5833330000000001</v>
+      </c>
+      <c r="B56" s="113">
+        <v>1.0857760000000001E-3</v>
+      </c>
+      <c r="C56" s="111">
+        <v>1</v>
+      </c>
+      <c r="D56" s="77"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A57" s="112">
+        <v>3.6666669999999999</v>
+      </c>
+      <c r="B57" s="114">
+        <v>8.6862109999999992E-3</v>
+      </c>
+      <c r="C57" s="112">
+        <v>8</v>
+      </c>
+      <c r="D57" s="78"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A58" s="111">
+        <v>3.6666669999999999</v>
+      </c>
+      <c r="B58" s="113">
+        <v>3.3659066000000001E-2</v>
+      </c>
+      <c r="C58" s="111">
+        <v>31</v>
+      </c>
+      <c r="D58" s="77"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A59" s="112">
+        <v>3.75</v>
+      </c>
+      <c r="B59" s="114">
+        <v>2.1715530000000001E-3</v>
+      </c>
+      <c r="C59" s="112">
+        <v>2</v>
+      </c>
+      <c r="D59" s="78"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A60" s="111">
+        <v>3.8333330000000001</v>
+      </c>
+      <c r="B60" s="113">
+        <v>3.0401737000000002E-2</v>
+      </c>
+      <c r="C60" s="111">
+        <v>28</v>
+      </c>
+      <c r="D60" s="77"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A61" s="112">
+        <v>3.8333330000000001</v>
+      </c>
+      <c r="B61" s="114">
+        <v>1.0857760000000001E-3</v>
+      </c>
+      <c r="C61" s="112">
+        <v>1</v>
+      </c>
+      <c r="D61" s="78"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A62" s="111">
+        <v>4</v>
+      </c>
+      <c r="B62" s="113">
+        <v>4.8859935E-2</v>
+      </c>
+      <c r="C62" s="111">
+        <v>45</v>
+      </c>
+      <c r="D62" s="77"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A63" s="112">
+        <v>4.1666670000000003</v>
+      </c>
+      <c r="B63" s="114">
+        <v>8.6862109999999992E-3</v>
+      </c>
+      <c r="C63" s="112">
+        <v>8</v>
+      </c>
+      <c r="D63" s="78"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A64" s="111">
+        <v>4.1666670000000003</v>
+      </c>
+      <c r="B64" s="113">
+        <v>4.3431049999999999E-3</v>
+      </c>
+      <c r="C64" s="111">
+        <v>4</v>
+      </c>
+      <c r="D64" s="77"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A65" s="112">
+        <v>4.3333329999999997</v>
+      </c>
+      <c r="B65" s="114">
+        <v>4.3431049999999999E-3</v>
+      </c>
+      <c r="C65" s="112">
+        <v>4</v>
+      </c>
+      <c r="D65" s="78"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A66" s="111">
+        <v>4.3333329999999997</v>
+      </c>
+      <c r="B66" s="113">
+        <v>3.2573290000000002E-3</v>
+      </c>
+      <c r="C66" s="111">
+        <v>3</v>
+      </c>
+      <c r="D66" s="77"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A67" s="112">
+        <v>4.4166670000000003</v>
+      </c>
+      <c r="B67" s="114">
+        <v>1.0857760000000001E-3</v>
+      </c>
+      <c r="C67" s="112">
+        <v>1</v>
+      </c>
+      <c r="D67" s="78"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A68" s="111">
+        <v>4.5</v>
+      </c>
+      <c r="B68" s="113">
+        <v>9.7719869999999993E-3</v>
+      </c>
+      <c r="C68" s="111">
+        <v>9</v>
+      </c>
+      <c r="D68" s="77"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A69" s="112">
+        <v>4.6666670000000003</v>
+      </c>
+      <c r="B69" s="114">
+        <v>5.4288820000000003E-3</v>
+      </c>
+      <c r="C69" s="112">
+        <v>5</v>
+      </c>
+      <c r="D69" s="78"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A70" s="111">
+        <v>4.6666670000000003</v>
+      </c>
+      <c r="B70" s="113">
+        <v>5.4288820000000003E-3</v>
+      </c>
+      <c r="C70" s="111">
+        <v>5</v>
+      </c>
+      <c r="D70" s="77"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A71" s="112">
+        <v>4.8333329999999997</v>
+      </c>
+      <c r="B71" s="114">
+        <v>6.5146580000000004E-3</v>
+      </c>
+      <c r="C71" s="112">
+        <v>6</v>
+      </c>
+      <c r="D71" s="78"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A72" s="111">
+        <v>5</v>
+      </c>
+      <c r="B72" s="113">
+        <v>6.5146580000000004E-3</v>
+      </c>
+      <c r="C72" s="111">
+        <v>6</v>
+      </c>
+      <c r="D72" s="77"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A73" s="112">
+        <v>5.1666670000000003</v>
+      </c>
+      <c r="B73" s="114">
+        <v>2.1715530000000001E-3</v>
+      </c>
+      <c r="C73" s="112">
+        <v>2</v>
+      </c>
+      <c r="D73" s="78"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A74" s="111">
+        <v>5.25</v>
+      </c>
+      <c r="B74" s="113">
+        <v>1.0857760000000001E-3</v>
+      </c>
+      <c r="C74" s="111">
+        <v>1</v>
+      </c>
+      <c r="D74" s="77"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A75" s="112">
+        <v>5.3333329999999997</v>
+      </c>
+      <c r="B75" s="114">
+        <v>2.1715530000000001E-3</v>
+      </c>
+      <c r="C75" s="112">
+        <v>2</v>
+      </c>
+      <c r="D75" s="78"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A76" s="111">
+        <v>5.6666670000000003</v>
+      </c>
+      <c r="B76" s="113">
+        <v>2.1715530000000001E-3</v>
+      </c>
+      <c r="C76" s="111">
+        <v>2</v>
+      </c>
+      <c r="D76" s="77"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A77" s="112">
+        <v>6</v>
+      </c>
+      <c r="B77" s="114">
+        <v>2.1715530000000001E-3</v>
+      </c>
+      <c r="C77" s="112">
+        <v>2</v>
+      </c>
+      <c r="D77" s="78"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A78" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="110" t="s">
+        <v>256</v>
+      </c>
+      <c r="B80" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A81" s="111">
+        <v>1</v>
+      </c>
+      <c r="B81" s="113">
+        <v>2.6857653999999998E-3</v>
+      </c>
+      <c r="C81" s="111">
+        <v>3</v>
+      </c>
+      <c r="D81" s="82"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A82" s="112">
+        <v>1.25</v>
+      </c>
+      <c r="B82" s="114">
+        <v>8.952551E-4</v>
+      </c>
+      <c r="C82" s="112">
+        <v>1</v>
+      </c>
+      <c r="D82" s="83"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A83" s="111">
+        <v>1.3333330000000001</v>
+      </c>
+      <c r="B83" s="113">
+        <v>8.952551E-4</v>
+      </c>
+      <c r="C83" s="111">
+        <v>1</v>
+      </c>
+      <c r="D83" s="82"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A84" s="112">
+        <v>1.5</v>
+      </c>
+      <c r="B84" s="114">
+        <v>4.4762756999999999E-3</v>
+      </c>
+      <c r="C84" s="112">
+        <v>5</v>
+      </c>
+      <c r="D84" s="83"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A85" s="111">
+        <v>1.6666669999999999</v>
+      </c>
+      <c r="B85" s="113">
+        <v>6.2667859999999999E-3</v>
+      </c>
+      <c r="C85" s="111">
+        <v>7</v>
+      </c>
+      <c r="D85" s="82"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A86" s="112">
+        <v>1.8333330000000001</v>
+      </c>
+      <c r="B86" s="114">
+        <v>1.07430618E-2</v>
+      </c>
+      <c r="C86" s="112">
+        <v>12</v>
+      </c>
+      <c r="D86" s="83"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A87" s="111">
+        <v>2</v>
+      </c>
+      <c r="B87" s="113">
+        <v>2.9543419899999999E-2</v>
+      </c>
+      <c r="C87" s="111">
+        <v>33</v>
+      </c>
+      <c r="D87" s="82"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A88" s="112">
+        <v>2.1666669999999999</v>
+      </c>
+      <c r="B88" s="114">
+        <v>1.7905103E-3</v>
+      </c>
+      <c r="C88" s="112">
+        <v>2</v>
+      </c>
+      <c r="D88" s="83"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A89" s="111">
+        <v>2.1666669999999999</v>
+      </c>
+      <c r="B89" s="113">
+        <v>1.7009847799999998E-2</v>
+      </c>
+      <c r="C89" s="111">
+        <v>19</v>
+      </c>
+      <c r="D89" s="82"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A90" s="112">
+        <v>2.3333330000000001</v>
+      </c>
+      <c r="B90" s="114">
+        <v>1.43240824E-2</v>
+      </c>
+      <c r="C90" s="112">
+        <v>16</v>
+      </c>
+      <c r="D90" s="83"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A91" s="111">
+        <v>2.3333330000000001</v>
+      </c>
+      <c r="B91" s="113">
+        <v>1.1638316900000001E-2</v>
+      </c>
+      <c r="C91" s="111">
+        <v>13</v>
+      </c>
+      <c r="D91" s="82"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A92" s="112">
+        <v>2.5</v>
+      </c>
+      <c r="B92" s="114">
+        <v>2.77529096E-2</v>
+      </c>
+      <c r="C92" s="112">
+        <v>31</v>
+      </c>
+      <c r="D92" s="83"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A93" s="111">
+        <v>2.6666669999999999</v>
+      </c>
+      <c r="B93" s="113">
+        <v>1.2533572099999999E-2</v>
+      </c>
+      <c r="C93" s="111">
+        <v>14</v>
+      </c>
+      <c r="D93" s="82"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A94" s="112">
+        <v>2.6666669999999999</v>
+      </c>
+      <c r="B94" s="114">
+        <v>2.5067144100000001E-2</v>
+      </c>
+      <c r="C94" s="112">
+        <v>28</v>
+      </c>
+      <c r="D94" s="83"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A95" s="111">
+        <v>2.8333330000000001</v>
+      </c>
+      <c r="B95" s="113">
+        <v>1.7905102999999999E-2</v>
+      </c>
+      <c r="C95" s="111">
+        <v>20</v>
+      </c>
+      <c r="D95" s="82"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A96" s="112">
+        <v>2.8333330000000001</v>
+      </c>
+      <c r="B96" s="114">
+        <v>7.1620412000000001E-3</v>
+      </c>
+      <c r="C96" s="112">
+        <v>8</v>
+      </c>
+      <c r="D96" s="83"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A97" s="111">
+        <v>2.9166669999999999</v>
+      </c>
+      <c r="B97" s="113">
+        <v>8.952551E-4</v>
+      </c>
+      <c r="C97" s="111">
+        <v>1</v>
+      </c>
+      <c r="D97" s="82"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A98" s="115">
+        <v>3</v>
+      </c>
+      <c r="B98" s="116">
+        <v>7.4306177299999998E-2</v>
+      </c>
+      <c r="C98" s="115">
+        <v>83</v>
+      </c>
+      <c r="D98" s="83"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A99" s="111">
+        <v>3.1666669999999999</v>
+      </c>
+      <c r="B99" s="113">
+        <v>9.8478066E-3</v>
+      </c>
+      <c r="C99" s="111">
+        <v>11</v>
+      </c>
+      <c r="D99" s="82"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A100" s="112">
+        <v>3.1666669999999999</v>
+      </c>
+      <c r="B100" s="114">
+        <v>5.0134288300000003E-2</v>
+      </c>
+      <c r="C100" s="112">
+        <v>56</v>
+      </c>
+      <c r="D100" s="83"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A101" s="111">
+        <v>3.25</v>
+      </c>
+      <c r="B101" s="113">
+        <v>8.952551E-4</v>
+      </c>
+      <c r="C101" s="111">
+        <v>1</v>
+      </c>
+      <c r="D101" s="82"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A102" s="112">
+        <v>3.3333330000000001</v>
+      </c>
+      <c r="B102" s="114">
+        <v>4.11817368E-2</v>
+      </c>
+      <c r="C102" s="112">
+        <v>46</v>
+      </c>
+      <c r="D102" s="83"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A103" s="111">
+        <v>3.3333330000000001</v>
+      </c>
+      <c r="B103" s="113">
+        <v>1.7905102999999999E-2</v>
+      </c>
+      <c r="C103" s="111">
+        <v>20</v>
+      </c>
+      <c r="D103" s="82"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A104" s="112">
+        <v>3.4166669999999999</v>
+      </c>
+      <c r="B104" s="114">
+        <v>8.952551E-4</v>
+      </c>
+      <c r="C104" s="112">
+        <v>1</v>
+      </c>
+      <c r="D104" s="83"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A105" s="111">
+        <v>3.5</v>
+      </c>
+      <c r="B105" s="113">
+        <v>7.4306177299999998E-2</v>
+      </c>
+      <c r="C105" s="111">
+        <v>83</v>
+      </c>
+      <c r="D105" s="82"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A106" s="112">
+        <v>3.6666669999999999</v>
+      </c>
+      <c r="B106" s="114">
+        <v>1.8800358100000001E-2</v>
+      </c>
+      <c r="C106" s="112">
+        <v>21</v>
+      </c>
+      <c r="D106" s="83"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A107" s="111">
+        <v>3.6666669999999999</v>
+      </c>
+      <c r="B107" s="113">
+        <v>4.6553267699999998E-2</v>
+      </c>
+      <c r="C107" s="111">
+        <v>52</v>
+      </c>
+      <c r="D107" s="82"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A108" s="112">
+        <v>3.75</v>
+      </c>
+      <c r="B108" s="114">
+        <v>8.952551E-4</v>
+      </c>
+      <c r="C108" s="112">
+        <v>1</v>
+      </c>
+      <c r="D108" s="83"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A109" s="111">
+        <v>3.8333330000000001</v>
+      </c>
+      <c r="B109" s="113">
+        <v>7.07251567E-2</v>
+      </c>
+      <c r="C109" s="111">
+        <v>79</v>
+      </c>
+      <c r="D109" s="82"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A110" s="112">
+        <v>3.8333330000000001</v>
+      </c>
+      <c r="B110" s="114">
+        <v>2.6857653999999998E-3</v>
+      </c>
+      <c r="C110" s="112">
+        <v>3</v>
+      </c>
+      <c r="D110" s="83"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A111" s="111">
+        <v>3.9166669999999999</v>
+      </c>
+      <c r="B111" s="113">
+        <v>8.952551E-4</v>
+      </c>
+      <c r="C111" s="111">
+        <v>1</v>
+      </c>
+      <c r="D111" s="82"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A112" s="115">
+        <v>4</v>
+      </c>
+      <c r="B112" s="116">
+        <v>0.1128021486</v>
+      </c>
+      <c r="C112" s="115">
+        <v>126</v>
+      </c>
+      <c r="D112" s="83"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A113" s="111">
+        <v>4.0833329999999997</v>
+      </c>
+      <c r="B113" s="113">
+        <v>8.952551E-4</v>
+      </c>
+      <c r="C113" s="111">
+        <v>1</v>
+      </c>
+      <c r="D113" s="82"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A114" s="112">
+        <v>4.1666670000000003</v>
+      </c>
+      <c r="B114" s="114">
+        <v>1.7905102999999999E-2</v>
+      </c>
+      <c r="C114" s="112">
+        <v>20</v>
+      </c>
+      <c r="D114" s="83"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A115" s="111">
+        <v>4.1666670000000003</v>
+      </c>
+      <c r="B115" s="113">
+        <v>1.2533572099999999E-2</v>
+      </c>
+      <c r="C115" s="111">
+        <v>14</v>
+      </c>
+      <c r="D115" s="82"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A116" s="112">
+        <v>4.3333329999999997</v>
+      </c>
+      <c r="B116" s="114">
+        <v>2.1486123499999999E-2</v>
+      </c>
+      <c r="C116" s="112">
+        <v>24</v>
+      </c>
+      <c r="D116" s="83"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A117" s="111">
+        <v>4.3333329999999997</v>
+      </c>
+      <c r="B117" s="113">
+        <v>1.43240824E-2</v>
+      </c>
+      <c r="C117" s="111">
+        <v>16</v>
+      </c>
+      <c r="D117" s="82"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A118" s="112">
+        <v>4.5</v>
+      </c>
+      <c r="B118" s="114">
+        <v>4.3867502199999998E-2</v>
+      </c>
+      <c r="C118" s="112">
+        <v>49</v>
+      </c>
+      <c r="D118" s="83"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A119" s="111">
+        <v>4.6666670000000003</v>
+      </c>
+      <c r="B119" s="113">
+        <v>2.9543419899999999E-2</v>
+      </c>
+      <c r="C119" s="111">
+        <v>33</v>
+      </c>
+      <c r="D119" s="82"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A120" s="112">
+        <v>4.6666670000000003</v>
+      </c>
+      <c r="B120" s="114">
+        <v>1.7905103E-3</v>
+      </c>
+      <c r="C120" s="112">
+        <v>2</v>
+      </c>
+      <c r="D120" s="83"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A121" s="111">
+        <v>4.8333329999999997</v>
+      </c>
+      <c r="B121" s="113">
+        <v>1.7905103E-3</v>
+      </c>
+      <c r="C121" s="111">
+        <v>2</v>
+      </c>
+      <c r="D121" s="82"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A122" s="112">
+        <v>4.8333329999999997</v>
+      </c>
+      <c r="B122" s="114">
+        <v>2.4171888999999998E-2</v>
+      </c>
+      <c r="C122" s="112">
+        <v>27</v>
+      </c>
+      <c r="D122" s="83"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A123" s="111">
+        <v>5</v>
+      </c>
+      <c r="B123" s="113">
+        <v>4.4762757399999999E-2</v>
+      </c>
+      <c r="C123" s="111">
+        <v>50</v>
+      </c>
+      <c r="D123" s="82"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A124" s="112">
+        <v>5.1666670000000003</v>
+      </c>
+      <c r="B124" s="114">
+        <v>1.34288272E-2</v>
+      </c>
+      <c r="C124" s="112">
+        <v>15</v>
+      </c>
+      <c r="D124" s="83"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A125" s="111">
+        <v>5.1666670000000003</v>
+      </c>
+      <c r="B125" s="113">
+        <v>2.6857653999999998E-3</v>
+      </c>
+      <c r="C125" s="111">
+        <v>3</v>
+      </c>
+      <c r="D125" s="82"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A126" s="112">
+        <v>5.3333329999999997</v>
+      </c>
+      <c r="B126" s="114">
+        <v>3.5810206000000001E-3</v>
+      </c>
+      <c r="C126" s="112">
+        <v>4</v>
+      </c>
+      <c r="D126" s="83"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A127" s="111">
+        <v>5.3333329999999997</v>
+      </c>
+      <c r="B127" s="113">
+        <v>1.07430618E-2</v>
+      </c>
+      <c r="C127" s="111">
+        <v>12</v>
+      </c>
+      <c r="D127" s="82"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A128" s="112">
+        <v>5.5</v>
+      </c>
+      <c r="B128" s="114">
+        <v>1.43240824E-2</v>
+      </c>
+      <c r="C128" s="112">
+        <v>16</v>
+      </c>
+      <c r="D128" s="83"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A129" s="111">
+        <v>5.6666670000000003</v>
+      </c>
+      <c r="B129" s="113">
+        <v>5.3715309000000001E-3</v>
+      </c>
+      <c r="C129" s="111">
+        <v>6</v>
+      </c>
+      <c r="D129" s="82"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A130" s="112">
+        <v>5.6666670000000003</v>
+      </c>
+      <c r="B130" s="114">
+        <v>8.952551E-4</v>
+      </c>
+      <c r="C130" s="112">
+        <v>1</v>
+      </c>
+      <c r="D130" s="83"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A131" s="111">
+        <v>5.8333329999999997</v>
+      </c>
+      <c r="B131" s="113">
+        <v>3.5810206000000001E-3</v>
+      </c>
+      <c r="C131" s="111">
+        <v>4</v>
+      </c>
+      <c r="D131" s="82"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A132" s="112">
+        <v>6</v>
+      </c>
+      <c r="B132" s="114">
+        <v>1.7905102999999999E-2</v>
+      </c>
+      <c r="C132" s="112">
+        <v>20</v>
+      </c>
+      <c r="D132" s="83"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A133" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="16384" width="8.83984375" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="60" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="53">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
+        <v>12</v>
+      </c>
+      <c r="E2" s="32">
+        <v>1</v>
+      </c>
+      <c r="F2" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="53">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32">
+        <v>67</v>
+      </c>
+      <c r="E3" s="32">
+        <v>2</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="53">
+        <v>2</v>
+      </c>
+      <c r="B4" s="32">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32">
+        <v>12</v>
+      </c>
+      <c r="E4" s="32">
+        <v>3</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="53">
+        <v>2</v>
+      </c>
+      <c r="B5" s="32">
+        <v>3</v>
+      </c>
+      <c r="C5" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="53">
+        <v>3</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="53">
+        <v>3</v>
+      </c>
+      <c r="B7" s="32">
+        <v>2</v>
+      </c>
+      <c r="C7" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="53">
+        <v>4</v>
+      </c>
+      <c r="B8" s="32">
+        <v>1</v>
+      </c>
+      <c r="C8" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="16384" width="8.83984375" style="100"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="27" x14ac:dyDescent="0.7">
+      <c r="A1" s="86" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="99"/>
+      <c r="E1" s="86" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="99"/>
+      <c r="J1" s="86" t="s">
+        <v>246</v>
+      </c>
+      <c r="K1" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="99"/>
+      <c r="O1" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="P1" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="99"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="A2" s="101">
+        <v>1.3333330000000001</v>
+      </c>
+      <c r="B2" s="94">
+        <v>8.7719300000000007E-3</v>
+      </c>
+      <c r="C2" s="88">
+        <v>1</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="E2" s="101">
+        <v>1.3333330000000001</v>
+      </c>
+      <c r="F2" s="94">
+        <v>8.8495580000000004E-3</v>
+      </c>
+      <c r="G2" s="88">
+        <v>1</v>
+      </c>
+      <c r="H2" s="84"/>
+      <c r="J2" s="101">
+        <v>1.3333330000000001</v>
+      </c>
+      <c r="K2" s="94">
+        <v>8.8495580000000004E-3</v>
+      </c>
+      <c r="L2" s="88">
+        <v>1</v>
+      </c>
+      <c r="M2" s="84"/>
+      <c r="O2" s="101">
+        <v>1</v>
+      </c>
+      <c r="P2" s="94">
+        <v>8.6206900000000003E-3</v>
+      </c>
+      <c r="Q2" s="88">
+        <v>1</v>
+      </c>
+      <c r="R2" s="84"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="A3" s="102">
+        <v>1.6666669999999999</v>
+      </c>
+      <c r="B3" s="95">
+        <v>8.7719300000000007E-3</v>
+      </c>
+      <c r="C3" s="90">
+        <v>1</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="102">
+        <v>1.6666669999999999</v>
+      </c>
+      <c r="F3" s="95">
+        <v>8.8495580000000004E-3</v>
+      </c>
+      <c r="G3" s="90">
+        <v>1</v>
+      </c>
+      <c r="H3" s="85"/>
+      <c r="J3" s="102">
+        <v>1.6666669999999999</v>
+      </c>
+      <c r="K3" s="95">
+        <v>3.5398230000000003E-2</v>
+      </c>
+      <c r="L3" s="90">
+        <v>4</v>
+      </c>
+      <c r="M3" s="85"/>
+      <c r="O3" s="103">
+        <v>2</v>
+      </c>
+      <c r="P3" s="104">
+        <v>0.31034483000000002</v>
+      </c>
+      <c r="Q3" s="105">
+        <v>36</v>
+      </c>
+      <c r="R3" s="85"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="A4" s="103">
+        <v>2</v>
+      </c>
+      <c r="B4" s="104">
+        <v>0.25438596000000002</v>
+      </c>
+      <c r="C4" s="105">
+        <v>29</v>
+      </c>
+      <c r="D4" s="84"/>
+      <c r="E4" s="103">
+        <v>2</v>
+      </c>
+      <c r="F4" s="104">
+        <v>0.16814159300000001</v>
+      </c>
+      <c r="G4" s="105">
+        <v>19</v>
+      </c>
+      <c r="H4" s="84"/>
+      <c r="J4" s="103">
+        <v>2</v>
+      </c>
+      <c r="K4" s="104">
+        <v>0.24778761099999999</v>
+      </c>
+      <c r="L4" s="105">
+        <v>28</v>
+      </c>
+      <c r="M4" s="84"/>
+      <c r="O4" s="103">
+        <v>3</v>
+      </c>
+      <c r="P4" s="104">
+        <v>0.25862068999999999</v>
+      </c>
+      <c r="Q4" s="105">
+        <v>30</v>
+      </c>
+      <c r="R4" s="84"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="A5" s="102">
+        <v>2.3333330000000001</v>
+      </c>
+      <c r="B5" s="95">
+        <v>7.0175440000000006E-2</v>
+      </c>
+      <c r="C5" s="90">
+        <v>8</v>
+      </c>
+      <c r="D5" s="85"/>
+      <c r="E5" s="102">
+        <v>2.3333330000000001</v>
+      </c>
+      <c r="F5" s="95">
+        <v>5.3097344999999997E-2</v>
+      </c>
+      <c r="G5" s="90">
+        <v>6</v>
+      </c>
+      <c r="H5" s="85"/>
+      <c r="J5" s="102">
+        <v>2.3333330000000001</v>
+      </c>
+      <c r="K5" s="95">
+        <v>6.1946902999999998E-2</v>
+      </c>
+      <c r="L5" s="90">
+        <v>7</v>
+      </c>
+      <c r="M5" s="85"/>
+      <c r="O5" s="103">
+        <v>4</v>
+      </c>
+      <c r="P5" s="104">
+        <v>0.30172413999999997</v>
+      </c>
+      <c r="Q5" s="105">
+        <v>35</v>
+      </c>
+      <c r="R5" s="85"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="A6" s="101">
+        <v>2.6666669999999999</v>
+      </c>
+      <c r="B6" s="94">
+        <v>9.6491229999999997E-2</v>
+      </c>
+      <c r="C6" s="88">
+        <v>11</v>
+      </c>
+      <c r="D6" s="84"/>
+      <c r="E6" s="101">
+        <v>2.6666669999999999</v>
+      </c>
+      <c r="F6" s="94">
+        <v>7.0796460000000005E-2</v>
+      </c>
+      <c r="G6" s="88">
+        <v>8</v>
+      </c>
+      <c r="H6" s="84"/>
+      <c r="J6" s="101">
+        <v>2.6666669999999999</v>
+      </c>
+      <c r="K6" s="94">
+        <v>0.115044248</v>
+      </c>
+      <c r="L6" s="88">
+        <v>13</v>
+      </c>
+      <c r="M6" s="84"/>
+      <c r="O6" s="101">
+        <v>5</v>
+      </c>
+      <c r="P6" s="94">
+        <v>7.7586210000000003E-2</v>
+      </c>
+      <c r="Q6" s="88">
+        <v>9</v>
+      </c>
+      <c r="R6" s="84"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="A7" s="103">
+        <v>3</v>
+      </c>
+      <c r="B7" s="104">
+        <v>0.26315789000000001</v>
+      </c>
+      <c r="C7" s="105">
+        <v>30</v>
+      </c>
+      <c r="D7" s="85"/>
+      <c r="E7" s="103">
+        <v>3</v>
+      </c>
+      <c r="F7" s="104">
+        <v>0.28318584099999999</v>
+      </c>
+      <c r="G7" s="105">
+        <v>32</v>
+      </c>
+      <c r="H7" s="85"/>
+      <c r="J7" s="103">
+        <v>3</v>
+      </c>
+      <c r="K7" s="104">
+        <v>0.24778761099999999</v>
+      </c>
+      <c r="L7" s="105">
+        <v>28</v>
+      </c>
+      <c r="M7" s="85"/>
+      <c r="O7" s="102">
+        <v>6</v>
+      </c>
+      <c r="P7" s="95">
+        <v>4.3103450000000001E-2</v>
+      </c>
+      <c r="Q7" s="90">
+        <v>5</v>
+      </c>
+      <c r="R7" s="85"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="A8" s="101">
+        <v>3.3333330000000001</v>
+      </c>
+      <c r="B8" s="94">
+        <v>7.8947370000000003E-2</v>
+      </c>
+      <c r="C8" s="88">
+        <v>9</v>
+      </c>
+      <c r="D8" s="84"/>
+      <c r="E8" s="101">
+        <v>3.3333330000000001</v>
+      </c>
+      <c r="F8" s="94">
+        <v>0.115044248</v>
+      </c>
+      <c r="G8" s="88">
+        <v>13</v>
+      </c>
+      <c r="H8" s="84"/>
+      <c r="J8" s="101">
+        <v>3.3333330000000001</v>
+      </c>
+      <c r="K8" s="94">
+        <v>8.8495575000000007E-2</v>
+      </c>
+      <c r="L8" s="88">
+        <v>10</v>
+      </c>
+      <c r="M8" s="84"/>
+      <c r="P8" s="100" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="A9" s="102">
+        <v>3.6666669999999999</v>
+      </c>
+      <c r="B9" s="95">
+        <v>3.5087720000000003E-2</v>
+      </c>
+      <c r="C9" s="90">
+        <v>4</v>
+      </c>
+      <c r="D9" s="85"/>
+      <c r="E9" s="102">
+        <v>3.6666669999999999</v>
+      </c>
+      <c r="F9" s="95">
+        <v>7.9646017999999999E-2</v>
+      </c>
+      <c r="G9" s="90">
+        <v>9</v>
+      </c>
+      <c r="H9" s="85"/>
+      <c r="J9" s="102">
+        <v>3.6666669999999999</v>
+      </c>
+      <c r="K9" s="95">
+        <v>8.8495575000000007E-2</v>
+      </c>
+      <c r="L9" s="90">
+        <v>10</v>
+      </c>
+      <c r="M9" s="85"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="A10" s="101">
+        <v>4</v>
+      </c>
+      <c r="B10" s="94">
+        <v>0.12280702</v>
+      </c>
+      <c r="C10" s="88">
+        <v>14</v>
+      </c>
+      <c r="D10" s="84"/>
+      <c r="E10" s="101">
+        <v>4</v>
+      </c>
+      <c r="F10" s="94">
+        <v>0.159292035</v>
+      </c>
+      <c r="G10" s="88">
+        <v>18</v>
+      </c>
+      <c r="H10" s="84"/>
+      <c r="J10" s="101">
+        <v>4</v>
+      </c>
+      <c r="K10" s="94">
+        <v>6.1946902999999998E-2</v>
+      </c>
+      <c r="L10" s="88">
+        <v>7</v>
+      </c>
+      <c r="M10" s="84"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="A11" s="102">
+        <v>4.3333329999999997</v>
+      </c>
+      <c r="B11" s="95">
+        <v>2.6315789999999999E-2</v>
+      </c>
+      <c r="C11" s="90">
+        <v>3</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="E11" s="102">
+        <v>4.3333329999999997</v>
+      </c>
+      <c r="F11" s="95">
+        <v>8.8495580000000004E-3</v>
+      </c>
+      <c r="G11" s="90">
+        <v>1</v>
+      </c>
+      <c r="H11" s="85"/>
+      <c r="J11" s="102">
+        <v>4.3333329999999997</v>
+      </c>
+      <c r="K11" s="95">
+        <v>2.6548672999999998E-2</v>
+      </c>
+      <c r="L11" s="90">
+        <v>3</v>
+      </c>
+      <c r="M11" s="85"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="A12" s="101">
+        <v>4.6666670000000003</v>
+      </c>
+      <c r="B12" s="94">
+        <v>2.6315789999999999E-2</v>
+      </c>
+      <c r="C12" s="88">
+        <v>3</v>
+      </c>
+      <c r="D12" s="84"/>
+      <c r="E12" s="101">
+        <v>4.6666670000000003</v>
+      </c>
+      <c r="F12" s="94">
+        <v>8.8495580000000004E-3</v>
+      </c>
+      <c r="G12" s="88">
+        <v>1</v>
+      </c>
+      <c r="H12" s="84"/>
+      <c r="J12" s="101">
+        <v>4.6666670000000003</v>
+      </c>
+      <c r="K12" s="94">
+        <v>1.7699115000000001E-2</v>
+      </c>
+      <c r="L12" s="88">
+        <v>2</v>
+      </c>
+      <c r="M12" s="84"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="A13" s="102">
+        <v>5</v>
+      </c>
+      <c r="B13" s="95">
+        <v>8.7719300000000007E-3</v>
+      </c>
+      <c r="C13" s="90">
+        <v>1</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="102">
+        <v>5</v>
+      </c>
+      <c r="F13" s="95">
+        <v>1.7699115000000001E-2</v>
+      </c>
+      <c r="G13" s="90">
+        <v>2</v>
+      </c>
+      <c r="H13" s="85"/>
+      <c r="K13" s="100" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="B14" s="100" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" s="101">
+        <v>5.3333329999999997</v>
+      </c>
+      <c r="F14" s="94">
+        <v>1.7699115000000001E-2</v>
+      </c>
+      <c r="G14" s="88">
+        <v>2</v>
+      </c>
+      <c r="H14" s="84"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="F15" s="100" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A17" s="100" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="76"/>
+      <c r="F1" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="76"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="77">
+        <v>1</v>
+      </c>
+      <c r="B2" s="77">
+        <v>0.30357139999999999</v>
+      </c>
+      <c r="C2" s="77">
+        <v>34</v>
+      </c>
+      <c r="F2" s="77">
+        <v>1</v>
+      </c>
+      <c r="G2" s="77">
+        <v>0.26126129999999997</v>
+      </c>
+      <c r="H2" s="77">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="78">
+        <v>2</v>
+      </c>
+      <c r="B3" s="78">
+        <v>0.30357139999999999</v>
+      </c>
+      <c r="C3" s="78">
+        <v>34</v>
+      </c>
+      <c r="F3" s="78">
+        <v>2</v>
+      </c>
+      <c r="G3" s="78">
+        <v>0.27927930000000001</v>
+      </c>
+      <c r="H3" s="78">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="77">
+        <v>3</v>
+      </c>
+      <c r="B4" s="77">
+        <v>0.20535709999999999</v>
+      </c>
+      <c r="C4" s="77">
+        <v>23</v>
+      </c>
+      <c r="F4" s="77">
+        <v>3</v>
+      </c>
+      <c r="G4" s="77">
+        <v>0.20720720000000001</v>
+      </c>
+      <c r="H4" s="77">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="78">
+        <v>4</v>
+      </c>
+      <c r="B5" s="78">
+        <v>0.1875</v>
+      </c>
+      <c r="C5" s="78">
+        <v>21</v>
+      </c>
+      <c r="F5" s="78">
+        <v>4</v>
+      </c>
+      <c r="G5" s="78">
+        <v>0.25225229999999998</v>
+      </c>
+      <c r="H5" s="78">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="76"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="77">
+        <v>1</v>
+      </c>
+      <c r="B11" s="77">
+        <v>1</v>
+      </c>
+      <c r="C11" s="77">
+        <v>1</v>
+      </c>
+      <c r="D11" s="77">
+        <v>0.12</v>
+      </c>
+      <c r="E11" s="77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="78">
+        <v>1</v>
+      </c>
+      <c r="B12" s="78">
+        <v>1</v>
+      </c>
+      <c r="C12" s="78">
+        <v>2</v>
+      </c>
+      <c r="D12" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="77">
+        <v>1</v>
+      </c>
+      <c r="B13" s="77">
+        <v>1</v>
+      </c>
+      <c r="C13" s="77">
+        <v>3</v>
+      </c>
+      <c r="D13" s="77">
+        <v>0.04</v>
+      </c>
+      <c r="E13" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="78">
+        <v>1</v>
+      </c>
+      <c r="B14" s="78">
+        <v>1</v>
+      </c>
+      <c r="C14" s="78">
+        <v>4</v>
+      </c>
+      <c r="D14" s="78">
+        <v>0.04</v>
+      </c>
+      <c r="E14" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="77">
+        <v>1</v>
+      </c>
+      <c r="B15" s="77">
+        <v>2</v>
+      </c>
+      <c r="C15" s="77">
+        <v>1</v>
+      </c>
+      <c r="D15" s="77">
+        <v>0.33333332999999998</v>
+      </c>
+      <c r="E15" s="77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="78">
+        <v>1</v>
+      </c>
+      <c r="B16" s="78">
+        <v>2</v>
+      </c>
+      <c r="C16" s="78">
+        <v>2</v>
+      </c>
+      <c r="D16" s="78">
+        <v>0.55555555999999995</v>
+      </c>
+      <c r="E16" s="78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="77">
+        <v>1</v>
+      </c>
+      <c r="B17" s="77">
+        <v>2</v>
+      </c>
+      <c r="C17" s="77">
+        <v>3</v>
+      </c>
+      <c r="D17" s="77">
+        <v>0.11111111</v>
+      </c>
+      <c r="E17" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="78">
+        <v>2</v>
+      </c>
+      <c r="B18" s="78">
+        <v>1</v>
+      </c>
+      <c r="C18" s="78">
+        <v>2</v>
+      </c>
+      <c r="D18" s="78">
+        <v>1</v>
+      </c>
+      <c r="E18" s="78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="77">
+        <v>2</v>
+      </c>
+      <c r="B19" s="77">
+        <v>2</v>
+      </c>
+      <c r="C19" s="77">
+        <v>1</v>
+      </c>
+      <c r="D19" s="77">
+        <v>0.11111111</v>
+      </c>
+      <c r="E19" s="77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="78">
+        <v>2</v>
+      </c>
+      <c r="B20" s="78">
+        <v>2</v>
+      </c>
+      <c r="C20" s="78">
+        <v>2</v>
+      </c>
+      <c r="D20" s="78">
+        <v>0.77777777999999997</v>
+      </c>
+      <c r="E20" s="78">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="77">
+        <v>2</v>
+      </c>
+      <c r="B21" s="77">
+        <v>2</v>
+      </c>
+      <c r="C21" s="77">
+        <v>3</v>
+      </c>
+      <c r="D21" s="77">
+        <v>0.11111111</v>
+      </c>
+      <c r="E21" s="77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="78">
+        <v>2</v>
+      </c>
+      <c r="B22" s="78">
+        <v>3</v>
+      </c>
+      <c r="C22" s="78">
+        <v>2</v>
+      </c>
+      <c r="D22" s="78">
+        <v>0.625</v>
+      </c>
+      <c r="E22" s="78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="77">
+        <v>2</v>
+      </c>
+      <c r="B23" s="77">
+        <v>3</v>
+      </c>
+      <c r="C23" s="77">
+        <v>3</v>
+      </c>
+      <c r="D23" s="77">
+        <v>0.25</v>
+      </c>
+      <c r="E23" s="77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="78">
+        <v>2</v>
+      </c>
+      <c r="B24" s="78">
+        <v>3</v>
+      </c>
+      <c r="C24" s="78">
+        <v>4</v>
+      </c>
+      <c r="D24" s="78">
+        <v>0.125</v>
+      </c>
+      <c r="E24" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="77">
+        <v>2</v>
+      </c>
+      <c r="B25" s="77">
+        <v>4</v>
+      </c>
+      <c r="C25" s="77">
+        <v>2</v>
+      </c>
+      <c r="D25" s="77">
+        <v>1</v>
+      </c>
+      <c r="E25" s="77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="78">
+        <v>2</v>
+      </c>
+      <c r="B26" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="78">
+        <v>2</v>
+      </c>
+      <c r="D26" s="78">
+        <v>1</v>
+      </c>
+      <c r="E26" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="77">
+        <v>3</v>
+      </c>
+      <c r="B27" s="77">
+        <v>2</v>
+      </c>
+      <c r="C27" s="77">
+        <v>1</v>
+      </c>
+      <c r="D27" s="77">
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="78">
+        <v>3</v>
+      </c>
+      <c r="B28" s="78">
+        <v>2</v>
+      </c>
+      <c r="C28" s="78">
+        <v>2</v>
+      </c>
+      <c r="D28" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="77">
+        <v>3</v>
+      </c>
+      <c r="B29" s="77">
+        <v>2</v>
+      </c>
+      <c r="C29" s="77">
+        <v>3</v>
+      </c>
+      <c r="D29" s="77">
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="78">
+        <v>3</v>
+      </c>
+      <c r="B30" s="78">
+        <v>3</v>
+      </c>
+      <c r="C30" s="78">
+        <v>1</v>
+      </c>
+      <c r="D30" s="78">
+        <v>7.6923080000000005E-2</v>
+      </c>
+      <c r="E30" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="77">
+        <v>3</v>
+      </c>
+      <c r="B31" s="77">
+        <v>3</v>
+      </c>
+      <c r="C31" s="77">
+        <v>2</v>
+      </c>
+      <c r="D31" s="77">
+        <v>0.69230769000000003</v>
+      </c>
+      <c r="E31" s="77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="78">
+        <v>3</v>
+      </c>
+      <c r="B32" s="78">
+        <v>3</v>
+      </c>
+      <c r="C32" s="78">
+        <v>3</v>
+      </c>
+      <c r="D32" s="78">
+        <v>0.23076922999999999</v>
+      </c>
+      <c r="E32" s="78">
+        <v>3</v>
+      </c>
+      <c r="H32" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="77">
+        <v>3</v>
+      </c>
+      <c r="B33" s="77">
+        <v>4</v>
+      </c>
+      <c r="C33" s="77">
+        <v>2</v>
+      </c>
+      <c r="D33" s="77">
+        <v>0.66666667000000002</v>
+      </c>
+      <c r="E33" s="77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="78">
+        <v>3</v>
+      </c>
+      <c r="B34" s="78">
+        <v>4</v>
+      </c>
+      <c r="C34" s="78">
+        <v>3</v>
+      </c>
+      <c r="D34" s="78">
+        <v>0.33333332999999998</v>
+      </c>
+      <c r="E34" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="77">
+        <v>4</v>
+      </c>
+      <c r="B35" s="77">
+        <v>3</v>
+      </c>
+      <c r="C35" s="77">
+        <v>2</v>
+      </c>
+      <c r="D35" s="77">
+        <v>1</v>
+      </c>
+      <c r="E35" s="77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="78">
+        <v>4</v>
+      </c>
+      <c r="B36" s="78">
+        <v>4</v>
+      </c>
+      <c r="C36" s="78">
+        <v>2</v>
+      </c>
+      <c r="D36" s="78">
+        <v>0.57894736999999996</v>
+      </c>
+      <c r="E36" s="78">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="77">
+        <v>4</v>
+      </c>
+      <c r="B37" s="77">
+        <v>4</v>
+      </c>
+      <c r="C37" s="77">
+        <v>3</v>
+      </c>
+      <c r="D37" s="77">
+        <v>0.42105262999999998</v>
+      </c>
+      <c r="E37" s="77">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -2112,23 +5964,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="65">
+      <c r="A1" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="63">
         <v>42614</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="G1" s="60" t="s">
+      <c r="C1" s="59"/>
+      <c r="G1" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="60" t="s">
+      <c r="I1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="58" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2156,7 +6008,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="66">
+      <c r="A3" s="64">
         <v>1</v>
       </c>
       <c r="B3" s="41">
@@ -2165,13 +6017,13 @@
       <c r="C3" s="40">
         <v>11</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="56" t="s">
         <v>56</v>
       </c>
       <c r="H3" s="42">
         <v>2</v>
       </c>
-      <c r="I3" s="58">
+      <c r="I3" s="56">
         <v>1</v>
       </c>
       <c r="J3" s="42">
@@ -2179,7 +6031,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A4" s="66">
+      <c r="A4" s="64">
         <v>2</v>
       </c>
       <c r="B4" s="43">
@@ -2202,7 +6054,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="66">
+      <c r="A5" s="64">
         <v>3</v>
       </c>
       <c r="B5" s="41">
@@ -2211,13 +6063,13 @@
       <c r="C5" s="40">
         <v>17</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="56" t="s">
         <v>62</v>
       </c>
       <c r="H5" s="42">
         <v>1</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="56">
         <v>1</v>
       </c>
       <c r="J5" s="42">
@@ -2239,20 +6091,20 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="63">
         <v>42614</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="G7" s="58" t="s">
+      <c r="C7" s="59"/>
+      <c r="G7" s="56" t="s">
         <v>64</v>
       </c>
       <c r="H7" s="42">
         <v>4</v>
       </c>
-      <c r="I7" s="58">
+      <c r="I7" s="56">
         <v>1</v>
       </c>
       <c r="J7" s="42">
@@ -2283,7 +6135,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A9" s="66">
+      <c r="A9" s="64">
         <v>1</v>
       </c>
       <c r="B9" s="41">
@@ -2292,13 +6144,13 @@
       <c r="C9" s="40">
         <v>1</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="56" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="42">
         <v>3</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="56">
         <v>1</v>
       </c>
       <c r="J9" s="42">
@@ -2306,7 +6158,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="66">
+      <c r="A10" s="64">
         <v>2</v>
       </c>
       <c r="B10" s="43">
@@ -2329,7 +6181,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="66">
+      <c r="A11" s="64">
         <v>3</v>
       </c>
       <c r="B11" s="41">
@@ -2338,13 +6190,13 @@
       <c r="C11" s="40">
         <v>3</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="56" t="s">
         <v>121</v>
       </c>
       <c r="H11" s="42">
         <v>2</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="56">
         <v>1</v>
       </c>
       <c r="J11" s="42">
@@ -2352,7 +6204,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A12" s="66">
+      <c r="A12" s="64">
         <v>4</v>
       </c>
       <c r="B12" s="43">
@@ -2376,15 +6228,15 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G13" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="56" t="s">
         <v>76</v>
       </c>
       <c r="H13" s="42">
         <v>3</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="56">
         <v>1</v>
       </c>
       <c r="J13" s="42">
@@ -2393,7 +6245,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>77</v>
@@ -2409,20 +6261,20 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="63">
         <v>42522</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="G15" s="58" t="s">
+      <c r="C15" s="59"/>
+      <c r="G15" s="56" t="s">
         <v>123</v>
       </c>
       <c r="H15" s="42">
         <v>2</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="56">
         <v>1</v>
       </c>
       <c r="J15" s="42">
@@ -2463,13 +6315,13 @@
         <v>10</v>
       </c>
       <c r="D17" s="47"/>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="56" t="s">
         <v>124</v>
       </c>
       <c r="H17" s="42">
         <v>3</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="56">
         <v>1</v>
       </c>
       <c r="J17" s="42">
@@ -2511,13 +6363,13 @@
         <v>23</v>
       </c>
       <c r="D19" s="50"/>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="56" t="s">
         <v>93</v>
       </c>
       <c r="H19" s="42">
         <v>3</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I19" s="56">
         <v>1</v>
       </c>
       <c r="J19" s="42">
@@ -2553,13 +6405,13 @@
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="56" t="s">
         <v>128</v>
       </c>
       <c r="H21" s="42">
         <v>4</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="56">
         <v>1</v>
       </c>
       <c r="J21" s="42">
@@ -2567,13 +6419,13 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A22" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="65">
+      <c r="A22" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="63">
         <v>42522</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="59"/>
       <c r="G22" s="36" t="s">
         <v>101</v>
       </c>
@@ -2597,13 +6449,13 @@
       <c r="C23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="56" t="s">
         <v>113</v>
       </c>
       <c r="H23" s="42">
         <v>4</v>
       </c>
-      <c r="I23" s="58">
+      <c r="I23" s="56">
         <v>1</v>
       </c>
       <c r="J23" s="42">
@@ -2666,7 +6518,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A29" s="51"/>
-      <c r="B29" s="67"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
     </row>
@@ -2676,12 +6528,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -2693,13 +6545,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="54" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2727,32 +6579,32 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2761,12 +6613,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -2775,25 +6627,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="59" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2848,7 +6700,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="12"/>
     </row>
@@ -2858,12 +6710,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L193"/>
+  <dimension ref="A1:L259"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -2876,17 +6728,17 @@
     <col min="11" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="62" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" s="60" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="39" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="59" t="s">
         <v>130</v>
       </c>
       <c r="J1" s="39" t="s">
@@ -3010,7 +6862,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>48</v>
@@ -3030,7 +6882,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J8" s="21" t="s">
         <v>49</v>
@@ -3050,7 +6902,7 @@
         <v>2.5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>50</v>
@@ -6034,7 +9886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A193" s="21" t="s">
         <v>107</v>
       </c>
@@ -6048,22 +9900,915 @@
         <v>1</v>
       </c>
     </row>
+    <row r="196" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="B196" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="D196" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E196"/>
+    </row>
+    <row r="197" spans="1:5" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A197" s="87" t="s">
+        <v>192</v>
+      </c>
+      <c r="B197" s="88">
+        <v>1</v>
+      </c>
+      <c r="C197" s="88">
+        <v>1</v>
+      </c>
+      <c r="D197" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A198" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="B198" s="90">
+        <v>1</v>
+      </c>
+      <c r="C198" s="90">
+        <v>1</v>
+      </c>
+      <c r="D198" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A199" s="87" t="s">
+        <v>194</v>
+      </c>
+      <c r="B199" s="88">
+        <v>1</v>
+      </c>
+      <c r="C199" s="88">
+        <v>1</v>
+      </c>
+      <c r="D199" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A200" s="89" t="s">
+        <v>195</v>
+      </c>
+      <c r="B200" s="90">
+        <v>1</v>
+      </c>
+      <c r="C200" s="90">
+        <v>1</v>
+      </c>
+      <c r="D200" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A201" s="87" t="s">
+        <v>196</v>
+      </c>
+      <c r="B201" s="88">
+        <v>1</v>
+      </c>
+      <c r="C201" s="88">
+        <v>1</v>
+      </c>
+      <c r="D201" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A202" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="B202" s="90">
+        <v>1</v>
+      </c>
+      <c r="C202" s="90">
+        <v>1</v>
+      </c>
+      <c r="D202" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A203" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="B203" s="88">
+        <v>1</v>
+      </c>
+      <c r="C203" s="88">
+        <v>1</v>
+      </c>
+      <c r="D203" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A204" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="B204" s="90">
+        <v>1</v>
+      </c>
+      <c r="C204" s="90">
+        <v>1</v>
+      </c>
+      <c r="D204" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A205" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="B205" s="88">
+        <v>1</v>
+      </c>
+      <c r="C205" s="88">
+        <v>1</v>
+      </c>
+      <c r="D205" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A206" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="B206" s="90">
+        <v>1</v>
+      </c>
+      <c r="C206" s="90">
+        <v>1</v>
+      </c>
+      <c r="D206" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A207" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="B207" s="88">
+        <v>2</v>
+      </c>
+      <c r="C207" s="88">
+        <v>2</v>
+      </c>
+      <c r="D207" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A208" s="89" t="s">
+        <v>203</v>
+      </c>
+      <c r="B208" s="90">
+        <v>2</v>
+      </c>
+      <c r="C208" s="90">
+        <v>2</v>
+      </c>
+      <c r="D208" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A209" s="87" t="s">
+        <v>204</v>
+      </c>
+      <c r="B209" s="88">
+        <v>2</v>
+      </c>
+      <c r="C209" s="88">
+        <v>2</v>
+      </c>
+      <c r="D209" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A210" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="B210" s="90">
+        <v>2</v>
+      </c>
+      <c r="C210" s="90">
+        <v>2</v>
+      </c>
+      <c r="D210" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A211" s="87" t="s">
+        <v>205</v>
+      </c>
+      <c r="B211" s="88">
+        <v>2</v>
+      </c>
+      <c r="C211" s="88">
+        <v>2</v>
+      </c>
+      <c r="D211" s="88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A212" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="B212" s="90">
+        <v>2</v>
+      </c>
+      <c r="C212" s="90">
+        <v>2</v>
+      </c>
+      <c r="D212" s="90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A213" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="B213" s="88">
+        <v>2</v>
+      </c>
+      <c r="C213" s="88">
+        <v>2</v>
+      </c>
+      <c r="D213" s="88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A214" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="B214" s="90">
+        <v>2</v>
+      </c>
+      <c r="C214" s="90">
+        <v>2</v>
+      </c>
+      <c r="D214" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A215" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="B215" s="88">
+        <v>2</v>
+      </c>
+      <c r="C215" s="88">
+        <v>2</v>
+      </c>
+      <c r="D215" s="88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A216" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="B216" s="90">
+        <v>2</v>
+      </c>
+      <c r="C216" s="90">
+        <v>2</v>
+      </c>
+      <c r="D216" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A217" s="87" t="s">
+        <v>195</v>
+      </c>
+      <c r="B217" s="88">
+        <v>2</v>
+      </c>
+      <c r="C217" s="88">
+        <v>2</v>
+      </c>
+      <c r="D217" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A218" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="B218" s="90">
+        <v>2</v>
+      </c>
+      <c r="C218" s="90">
+        <v>2</v>
+      </c>
+      <c r="D218" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A219" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="B219" s="88">
+        <v>2</v>
+      </c>
+      <c r="C219" s="88">
+        <v>2</v>
+      </c>
+      <c r="D219" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A220" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="B220" s="90">
+        <v>2</v>
+      </c>
+      <c r="C220" s="90">
+        <v>2</v>
+      </c>
+      <c r="D220" s="90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A221" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="B221" s="88">
+        <v>2</v>
+      </c>
+      <c r="C221" s="88">
+        <v>2</v>
+      </c>
+      <c r="D221" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A222" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="B222" s="90">
+        <v>2</v>
+      </c>
+      <c r="C222" s="90">
+        <v>2</v>
+      </c>
+      <c r="D222" s="90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A223" s="87" t="s">
+        <v>215</v>
+      </c>
+      <c r="B223" s="88">
+        <v>2</v>
+      </c>
+      <c r="C223" s="88">
+        <v>2</v>
+      </c>
+      <c r="D223" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A224" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="B224" s="90">
+        <v>2</v>
+      </c>
+      <c r="C224" s="90">
+        <v>2</v>
+      </c>
+      <c r="D224" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A225" s="87" t="s">
+        <v>217</v>
+      </c>
+      <c r="B225" s="88">
+        <v>2</v>
+      </c>
+      <c r="C225" s="88">
+        <v>2</v>
+      </c>
+      <c r="D225" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A226" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="B226" s="90">
+        <v>2</v>
+      </c>
+      <c r="C226" s="90">
+        <v>2</v>
+      </c>
+      <c r="D226" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A227" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="B227" s="88">
+        <v>2</v>
+      </c>
+      <c r="C227" s="88">
+        <v>2</v>
+      </c>
+      <c r="D227" s="88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A228" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="B228" s="90">
+        <v>2</v>
+      </c>
+      <c r="C228" s="90">
+        <v>2</v>
+      </c>
+      <c r="D228" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A229" s="87" t="s">
+        <v>220</v>
+      </c>
+      <c r="B229" s="88">
+        <v>2</v>
+      </c>
+      <c r="C229" s="88">
+        <v>2</v>
+      </c>
+      <c r="D229" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A230" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="B230" s="90">
+        <v>2</v>
+      </c>
+      <c r="C230" s="90">
+        <v>2</v>
+      </c>
+      <c r="D230" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A231" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="B231" s="88">
+        <v>2</v>
+      </c>
+      <c r="C231" s="88">
+        <v>2</v>
+      </c>
+      <c r="D231" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A232" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="B232" s="90">
+        <v>2</v>
+      </c>
+      <c r="C232" s="90">
+        <v>2</v>
+      </c>
+      <c r="D232" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A233" s="87" t="s">
+        <v>224</v>
+      </c>
+      <c r="B233" s="88">
+        <v>2</v>
+      </c>
+      <c r="C233" s="88">
+        <v>2</v>
+      </c>
+      <c r="D233" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A234" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="B234" s="90">
+        <v>2</v>
+      </c>
+      <c r="C234" s="90">
+        <v>2</v>
+      </c>
+      <c r="D234" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A235" s="87" t="s">
+        <v>226</v>
+      </c>
+      <c r="B235" s="88">
+        <v>2</v>
+      </c>
+      <c r="C235" s="88">
+        <v>2</v>
+      </c>
+      <c r="D235" s="88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A236" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="B236" s="90">
+        <v>2</v>
+      </c>
+      <c r="C236" s="90">
+        <v>2</v>
+      </c>
+      <c r="D236" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A237" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="B237" s="88">
+        <v>2</v>
+      </c>
+      <c r="C237" s="88">
+        <v>2</v>
+      </c>
+      <c r="D237" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A238" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="B238" s="90">
+        <v>2</v>
+      </c>
+      <c r="C238" s="90">
+        <v>2</v>
+      </c>
+      <c r="D238" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A239" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="B239" s="88">
+        <v>2</v>
+      </c>
+      <c r="C239" s="88">
+        <v>2</v>
+      </c>
+      <c r="D239" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A240" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="B240" s="90">
+        <v>2</v>
+      </c>
+      <c r="C240" s="90">
+        <v>2</v>
+      </c>
+      <c r="D240" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A241" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="B241" s="88">
+        <v>2</v>
+      </c>
+      <c r="C241" s="88">
+        <v>2</v>
+      </c>
+      <c r="D241" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A242" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="B242" s="90">
+        <v>3</v>
+      </c>
+      <c r="C242" s="90">
+        <v>3</v>
+      </c>
+      <c r="D242" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A243" s="87" t="s">
+        <v>203</v>
+      </c>
+      <c r="B243" s="88">
+        <v>3</v>
+      </c>
+      <c r="C243" s="88">
+        <v>3</v>
+      </c>
+      <c r="D243" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A244" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="B244" s="90">
+        <v>3</v>
+      </c>
+      <c r="C244" s="90">
+        <v>3</v>
+      </c>
+      <c r="D244" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A245" s="87" t="s">
+        <v>195</v>
+      </c>
+      <c r="B245" s="88">
+        <v>3</v>
+      </c>
+      <c r="C245" s="88">
+        <v>3</v>
+      </c>
+      <c r="D245" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A246" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="B246" s="90">
+        <v>3</v>
+      </c>
+      <c r="C246" s="90">
+        <v>3</v>
+      </c>
+      <c r="D246" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A247" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="B247" s="88">
+        <v>3</v>
+      </c>
+      <c r="C247" s="88">
+        <v>3</v>
+      </c>
+      <c r="D247" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A248" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="B248" s="90">
+        <v>3</v>
+      </c>
+      <c r="C248" s="90">
+        <v>3</v>
+      </c>
+      <c r="D248" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A249" s="87" t="s">
+        <v>212</v>
+      </c>
+      <c r="B249" s="88">
+        <v>3</v>
+      </c>
+      <c r="C249" s="88">
+        <v>3</v>
+      </c>
+      <c r="D249" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A250" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="B250" s="90">
+        <v>3</v>
+      </c>
+      <c r="C250" s="90">
+        <v>3</v>
+      </c>
+      <c r="D250" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A251" s="87" t="s">
+        <v>232</v>
+      </c>
+      <c r="B251" s="88">
+        <v>3</v>
+      </c>
+      <c r="C251" s="88">
+        <v>3</v>
+      </c>
+      <c r="D251" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A252" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="B252" s="90">
+        <v>3</v>
+      </c>
+      <c r="C252" s="90">
+        <v>3</v>
+      </c>
+      <c r="D252" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A253" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="B253" s="88">
+        <v>3</v>
+      </c>
+      <c r="C253" s="88">
+        <v>3</v>
+      </c>
+      <c r="D253" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A254" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="B254" s="90">
+        <v>3</v>
+      </c>
+      <c r="C254" s="90">
+        <v>3</v>
+      </c>
+      <c r="D254" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A255" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="B255" s="88">
+        <v>3</v>
+      </c>
+      <c r="C255" s="88">
+        <v>3</v>
+      </c>
+      <c r="D255" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A256" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="B256" s="90">
+        <v>3</v>
+      </c>
+      <c r="C256" s="90">
+        <v>3</v>
+      </c>
+      <c r="D256" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A257" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="B257" s="88">
+        <v>3</v>
+      </c>
+      <c r="C257" s="88">
+        <v>3</v>
+      </c>
+      <c r="D257" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A258" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="B258" s="90">
+        <v>4</v>
+      </c>
+      <c r="C258" s="90">
+        <v>4</v>
+      </c>
+      <c r="D258" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="13.5" x14ac:dyDescent="0.5">
+      <c r="A259" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="B259" s="88">
+        <v>4</v>
+      </c>
+      <c r="C259" s="88">
+        <v>4</v>
+      </c>
+      <c r="D259" s="88">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B95">
-    <sortState ref="A2:B95">
-      <sortCondition ref="A1:A95"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:B95"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -6576,7 +11321,7 @@
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A27" s="16" t="s">
         <v>33</v>
       </c>
@@ -6698,7 +11443,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.5">
@@ -6898,10 +11643,10 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A62" s="58" t="s">
+      <c r="A62" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="56" t="s">
         <v>5</v>
       </c>
       <c r="C62" s="42">
@@ -6915,7 +11660,7 @@
       <c r="A63" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="B63" s="63" t="s">
+      <c r="B63" s="61" t="s">
         <v>32</v>
       </c>
       <c r="C63" s="40">
@@ -6926,10 +11671,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A64" s="58" t="s">
+      <c r="A64" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="B64" s="64" t="s">
+      <c r="B64" s="62" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="42">
@@ -6943,7 +11688,7 @@
       <c r="A65" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="63" t="s">
+      <c r="B65" s="61" t="s">
         <v>32</v>
       </c>
       <c r="C65" s="40">
@@ -6954,10 +11699,10 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A66" s="58" t="s">
+      <c r="A66" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="B66" s="64" t="s">
+      <c r="B66" s="62" t="s">
         <v>32</v>
       </c>
       <c r="C66" s="42">
@@ -6971,7 +11716,7 @@
       <c r="A67" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="B67" s="63" t="s">
+      <c r="B67" s="61" t="s">
         <v>32</v>
       </c>
       <c r="C67" s="40">
@@ -6982,10 +11727,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A68" s="58" t="s">
+      <c r="A68" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="B68" s="64" t="s">
+      <c r="B68" s="62" t="s">
         <v>32</v>
       </c>
       <c r="C68" s="42">
@@ -6996,7 +11741,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="61" t="s">
         <v>32</v>
       </c>
       <c r="B69" s="36" t="s">
@@ -7010,10 +11755,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A70" s="64" t="s">
+      <c r="A70" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="56" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="42">
@@ -7024,7 +11769,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A71" s="63" t="s">
+      <c r="A71" s="61" t="s">
         <v>32</v>
       </c>
       <c r="B71" s="36" t="s">
@@ -7038,10 +11783,10 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A72" s="64" t="s">
+      <c r="A72" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B72" s="58" t="s">
+      <c r="B72" s="56" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="42">
@@ -7052,10 +11797,10 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A73" s="63" t="s">
+      <c r="A73" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="63" t="s">
+      <c r="B73" s="61" t="s">
         <v>32</v>
       </c>
       <c r="C73" s="40">
@@ -7066,10 +11811,10 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A74" s="64" t="s">
+      <c r="A74" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="64" t="s">
+      <c r="B74" s="62" t="s">
         <v>32</v>
       </c>
       <c r="C74" s="42">
@@ -7080,10 +11825,10 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A75" s="63" t="s">
+      <c r="A75" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="63" t="s">
+      <c r="B75" s="61" t="s">
         <v>32</v>
       </c>
       <c r="C75" s="40">
@@ -7094,10 +11839,10 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A76" s="64" t="s">
+      <c r="A76" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="64" t="s">
+      <c r="B76" s="62" t="s">
         <v>32</v>
       </c>
       <c r="C76" s="42">
@@ -7114,7 +11859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
@@ -7133,23 +11878,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="61" t="s">
+      <c r="A1" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="10">
         <v>42522</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
@@ -7162,16 +11907,16 @@
       <c r="D2" s="40">
         <v>3</v>
       </c>
-      <c r="E2" s="57"/>
+      <c r="E2" s="55"/>
       <c r="H2" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I2" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="56" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="42">
@@ -7184,7 +11929,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I3" s="40">
         <v>2.5277370000000001</v>
@@ -7204,7 +11949,7 @@
       <c r="D4" s="40">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="56" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="42">
@@ -7213,7 +11958,7 @@
       <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="56" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="42">
@@ -7246,7 +11991,7 @@
       <c r="D6" s="40">
         <v>7</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="56" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="42">
@@ -7255,7 +12000,7 @@
       <c r="J6" s="49"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="56" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="42">
@@ -7276,11 +12021,11 @@
       <c r="J7" s="50"/>
     </row>
     <row r="8" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="59"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="50"/>
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="56" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="42">
@@ -7290,7 +12035,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="H9" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I9" s="40">
         <v>2.9329999999999998</v>
@@ -7298,16 +12043,16 @@
       <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="61" t="s">
-        <v>166</v>
+      <c r="A10" s="59" t="s">
+        <v>165</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="H10" s="58" t="s">
-        <v>164</v>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="H10" s="56" t="s">
+        <v>163</v>
       </c>
       <c r="I10" s="42">
         <v>2.5449999999999999</v>
@@ -7321,8 +12066,8 @@
       <c r="B11" s="46">
         <v>2.5501670000000001</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
       <c r="H11" s="36" t="s">
         <v>12</v>
       </c>
@@ -7332,15 +12077,15 @@
       <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="56" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="48">
         <v>2.6484290000000001</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
-      <c r="H12" s="64" t="s">
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="H12" s="62" t="s">
         <v>32</v>
       </c>
       <c r="I12" s="42">
@@ -7355,21 +12100,21 @@
       <c r="B13" s="46">
         <v>2.8184999999999998</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="56" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="48">
         <v>2.4152499999999999</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="36" t="s">
@@ -7378,18 +12123,18 @@
       <c r="B15" s="46">
         <v>2.633731</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="56" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="48">
         <v>2.7372860000000001</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
     </row>
     <row r="19" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A19" s="39" t="s">
@@ -7429,7 +12174,7 @@
       <c r="A21" s="42">
         <v>1</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="56" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="42">
@@ -7463,7 +12208,7 @@
       <c r="A23" s="42">
         <v>3</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="56" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="42">
@@ -7497,7 +12242,7 @@
       <c r="A25" s="42">
         <v>2</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="42">
@@ -7531,7 +12276,7 @@
       <c r="A27" s="42">
         <v>2</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="56" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="42">
@@ -7565,7 +12310,7 @@
       <c r="A29" s="42">
         <v>1</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="56" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="42">
@@ -7599,7 +12344,7 @@
       <c r="A31" s="42">
         <v>3</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="56" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="42">
@@ -7631,530 +12376,11 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A34" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="12.3671875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.7890625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="8.83984375" style="9"/>
-    <col min="5" max="5" width="12.89453125" style="9" customWidth="1"/>
-    <col min="6" max="7" width="8.83984375" style="9"/>
-    <col min="8" max="8" width="11.5234375" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.83984375" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A2" s="40">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41">
-        <v>0.25332290000000002</v>
-      </c>
-      <c r="C2" s="40">
-        <v>324</v>
-      </c>
-      <c r="E2" s="40">
-        <v>1</v>
-      </c>
-      <c r="F2" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="G2" s="40">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A3" s="42">
-        <v>2</v>
-      </c>
-      <c r="B3" s="43">
-        <v>0.25566850000000002</v>
-      </c>
-      <c r="C3" s="42">
-        <v>327</v>
-      </c>
-      <c r="E3" s="42">
-        <v>2</v>
-      </c>
-      <c r="F3" s="43">
-        <v>0.25</v>
-      </c>
-      <c r="G3" s="42">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A4" s="40">
-        <v>3</v>
-      </c>
-      <c r="B4" s="41">
-        <v>0.24550430000000001</v>
-      </c>
-      <c r="C4" s="40">
-        <v>314</v>
-      </c>
-      <c r="E4" s="40">
-        <v>3</v>
-      </c>
-      <c r="F4" s="41">
-        <v>0.29310340000000001</v>
-      </c>
-      <c r="G4" s="40">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A5" s="42">
-        <v>4</v>
-      </c>
-      <c r="B5" s="43">
-        <v>0.24550430000000001</v>
-      </c>
-      <c r="C5" s="42">
-        <v>314</v>
-      </c>
-      <c r="E5" s="42">
-        <v>4</v>
-      </c>
-      <c r="F5" s="43">
-        <v>0.20689660000000001</v>
-      </c>
-      <c r="G5" s="42">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A6" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A8" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A9" s="44">
-        <v>2.529442</v>
-      </c>
-      <c r="B9" s="45">
-        <v>2.6663359999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A12" s="40">
-        <v>1</v>
-      </c>
-      <c r="B12" s="46">
-        <v>2.6557499999999998</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="E12" s="40">
-        <v>1</v>
-      </c>
-      <c r="F12" s="46">
-        <v>2.5212500000000002</v>
-      </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="71"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A13" s="42">
-        <v>2</v>
-      </c>
-      <c r="B13" s="48">
-        <v>2.660488</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="E13" s="42">
-        <v>2</v>
-      </c>
-      <c r="F13" s="48">
-        <v>2.5620609999999999</v>
-      </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="73"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A14" s="40">
-        <v>3</v>
-      </c>
-      <c r="B14" s="46">
-        <v>2.6912500000000001</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="E14" s="40">
-        <v>3</v>
-      </c>
-      <c r="F14" s="46">
-        <v>2.5812369999999998</v>
-      </c>
-      <c r="H14" s="75"/>
-      <c r="I14" s="71"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A15" s="42">
-        <v>4</v>
-      </c>
-      <c r="B15" s="48">
-        <v>2.7204999999999999</v>
-      </c>
-      <c r="C15" s="49"/>
-      <c r="E15" s="42">
-        <v>4</v>
-      </c>
-      <c r="F15" s="48">
-        <v>2.5922499999999999</v>
-      </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="73"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A16" s="51"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A17" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A19" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A20" s="52">
-        <v>1</v>
-      </c>
-      <c r="B20" s="32">
-        <v>12</v>
-      </c>
-      <c r="C20" s="53">
-        <f>B20/(B20+B21+B22+B23)</f>
-        <v>0.10344827586206896</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A21" s="52">
-        <v>2</v>
-      </c>
-      <c r="B21" s="32">
-        <v>82</v>
-      </c>
-      <c r="C21" s="53">
-        <f>B21/(B20+B21+B22+B23)</f>
-        <v>0.7068965517241379</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A22" s="32">
-        <v>3</v>
-      </c>
-      <c r="B22" s="32">
-        <v>20</v>
-      </c>
-      <c r="C22" s="53">
-        <f>B22/(B21+B22+B23+B20)</f>
-        <v>0.17241379310344829</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A23" s="32">
-        <v>4</v>
-      </c>
-      <c r="B23" s="32">
-        <v>2</v>
-      </c>
-      <c r="C23" s="53">
-        <f>B23/(B22+B23+B20+B21)</f>
-        <v>1.7241379310344827E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A25" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A27" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A28" s="32">
-        <v>1</v>
-      </c>
-      <c r="B28" s="32">
-        <v>94</v>
-      </c>
-      <c r="C28" s="53">
-        <f>B28/(B28+B29+B30+B31)</f>
-        <v>0.10262008733624454</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A29" s="32">
-        <v>2</v>
-      </c>
-      <c r="B29" s="32">
-        <v>587</v>
-      </c>
-      <c r="C29" s="53">
-        <f>B29/(B28+B29+B30+B31)</f>
-        <v>0.64082969432314407</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A30" s="32">
-        <v>3</v>
-      </c>
-      <c r="B30" s="32">
-        <v>209</v>
-      </c>
-      <c r="C30" s="53">
-        <f>B30/(B28+B29+B30+B31)</f>
-        <v>0.22816593886462883</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A31" s="32">
-        <v>4</v>
-      </c>
-      <c r="B31" s="32">
-        <v>26</v>
-      </c>
-      <c r="C31" s="53">
-        <f>B31/(B28+B29+B30+B31)</f>
-        <v>2.8384279475982533E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C32" s="54"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="16384" width="8.83984375" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="55">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32">
-        <v>1</v>
-      </c>
-      <c r="C2" s="32">
-        <v>12</v>
-      </c>
-      <c r="E2" s="32">
-        <v>1</v>
-      </c>
-      <c r="F2" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="55">
-        <v>2</v>
-      </c>
-      <c r="B3" s="32">
-        <v>1</v>
-      </c>
-      <c r="C3" s="32">
-        <v>67</v>
-      </c>
-      <c r="E3" s="32">
-        <v>2</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="55">
-        <v>2</v>
-      </c>
-      <c r="B4" s="32">
-        <v>2</v>
-      </c>
-      <c r="C4" s="32">
-        <v>12</v>
-      </c>
-      <c r="E4" s="32">
-        <v>3</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="55">
-        <v>2</v>
-      </c>
-      <c r="B5" s="32">
-        <v>3</v>
-      </c>
-      <c r="C5" s="32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="55">
-        <v>3</v>
-      </c>
-      <c r="B6" s="32">
-        <v>1</v>
-      </c>
-      <c r="C6" s="32">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="55">
-        <v>3</v>
-      </c>
-      <c r="B7" s="32">
-        <v>2</v>
-      </c>
-      <c r="C7" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="55">
-        <v>4</v>
-      </c>
-      <c r="B8" s="32">
-        <v>1</v>
-      </c>
-      <c r="C8" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>